--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_3_18.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_3_18.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>622275.3765184544</v>
+        <v>613129.89955322</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7765049.28162178</v>
+        <v>6750972.622617705</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6187346.75695111</v>
+        <v>5193450.223461223</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7569149.074190225</v>
+        <v>7952059.446792972</v>
       </c>
     </row>
     <row r="11">
@@ -656,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D2" t="n">
         <v>400.41929060787</v>
@@ -707,22 +709,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>50.14004450135389</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>6.338580986754886</v>
       </c>
       <c r="Y2" t="n">
         <v>396.9273063213908</v>
@@ -826,16 +828,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -874,16 +876,16 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
-        <v>180.9770296699705</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>119.2158337902828</v>
       </c>
       <c r="X4" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -902,7 +904,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>217.9384953604879</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -911,7 +913,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -947,16 +949,16 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
-        <v>64.47047989240072</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>396.636963852737</v>
@@ -1051,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
         <v>165.577887163712</v>
@@ -1072,7 +1074,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
-        <v>36.64132101788835</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1111,13 +1113,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>235.9604235189134</v>
+        <v>27.35334490128912</v>
       </c>
       <c r="Y7" t="n">
         <v>222.4883416251229</v>
@@ -1133,7 +1135,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C8" t="n">
-        <v>368.5810258108821</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1181,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
-        <v>379.9226978561831</v>
+        <v>82.48769699774165</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,16 +1290,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>159.3017069803637</v>
+        <v>136.1769805884545</v>
       </c>
       <c r="F10" t="n">
         <v>162.9848146305146</v>
@@ -1336,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1354,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>27.35334490128912</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1376,10 +1378,10 @@
         <v>400.41929060787</v>
       </c>
       <c r="E11" t="n">
-        <v>346.7369985932582</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F11" t="n">
-        <v>416.8201079258493</v>
+        <v>92.50935913004869</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1388,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1427,7 +1429,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W11" t="n">
         <v>379.9226978561831</v>
@@ -1525,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>180.6077930059085</v>
+        <v>27.35334490128912</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C14" t="n">
         <v>406.0233447798626</v>
@@ -1613,16 +1615,16 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>410.1968133282722</v>
+        <v>392.4208820523424</v>
       </c>
       <c r="F14" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G14" t="n">
-        <v>351.2563610056114</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H14" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1853,16 +1855,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F17" t="n">
-        <v>9.978229853488823</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H17" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I17" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>117.4784251967216</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="18">
@@ -2017,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>77.72590661309994</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>42.53944252213996</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>184.5278504388888</v>
@@ -2059,13 +2061,13 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V19" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
         <v>222.4883416251229</v>
@@ -2081,7 +2083,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C20" t="n">
-        <v>97.46748333863208</v>
+        <v>271.338631283351</v>
       </c>
       <c r="D20" t="n">
         <v>400.41929060787</v>
@@ -2096,7 +2098,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H20" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>85.48824505609757</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T20" t="n">
         <v>219.9844192126098</v>
@@ -2239,19 +2241,19 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
-        <v>169.3824387139007</v>
+        <v>157.122629639721</v>
       </c>
       <c r="D22" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
-        <v>64.45037357677296</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T22" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2338,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I23" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2369,10 +2371,10 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>254.489886823085</v>
+        <v>251.4066896505621</v>
       </c>
       <c r="V23" t="n">
         <v>346.3391791168841</v>
@@ -2384,7 +2386,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y23" t="n">
-        <v>88.37144488016051</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="24">
@@ -2473,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>166.7165542762725</v>
+        <v>58.87768236127997</v>
       </c>
       <c r="C25" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="26">
@@ -2552,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>406.1189678678446</v>
+        <v>360.2718058255109</v>
       </c>
       <c r="C26" t="n">
         <v>406.0233447798626</v>
@@ -2621,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>351.080144279057</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="27">
@@ -2710,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>157.8996982303191</v>
+        <v>58.98139410584826</v>
       </c>
       <c r="E28" t="n">
         <v>159.3017069803637</v>
@@ -2728,7 +2730,7 @@
         <v>165.577887163712</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2773,7 +2775,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>54.68688746169129</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
         <v>235.9604235189134</v>
@@ -2810,7 +2812,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I29" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2843,16 +2845,16 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U29" t="n">
-        <v>31.99018014062471</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V29" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W29" t="n">
-        <v>379.9226978561831</v>
+        <v>22.92681701721022</v>
       </c>
       <c r="X29" t="n">
         <v>396.636963852737</v>
@@ -2947,25 +2949,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>115.1825854367171</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T31" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>65.42520756919065</v>
       </c>
       <c r="Y31" t="n">
-        <v>12.68843489334748</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3044,10 +3046,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H32" t="n">
-        <v>307.7994123985592</v>
+        <v>170.7879507721959</v>
       </c>
       <c r="I32" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3080,16 +3082,16 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T32" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W32" t="n">
-        <v>283.7777510779965</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X32" t="n">
         <v>396.636963852737</v>
@@ -3184,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3232,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>279.9701659793371</v>
+        <v>153.0251390105127</v>
       </c>
       <c r="V34" t="n">
         <v>271.1468876098733</v>
@@ -3250,10 +3252,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
-        <v>180.6077930059089</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="35">
@@ -3269,10 +3271,10 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D35" t="n">
-        <v>400.41929060787</v>
+        <v>368.1319780410717</v>
       </c>
       <c r="E35" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>416.8201079258493</v>
@@ -3314,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U35" t="n">
-        <v>165.9184445944652</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V35" t="n">
         <v>346.3391791168841</v>
@@ -3421,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>185.8227093301039</v>
+        <v>159.3854280103019</v>
       </c>
       <c r="C37" t="n">
         <v>169.3824387139007</v>
@@ -3484,13 +3486,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
-        <v>27.35334490128957</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3523,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I38" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U38" t="n">
-        <v>31.99018014062471</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V38" t="n">
         <v>346.3391791168841</v>
@@ -3569,7 +3571,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y38" t="n">
-        <v>396.9273063213908</v>
+        <v>173.8596899362583</v>
       </c>
     </row>
     <row r="39">
@@ -3679,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>237.1532516330649</v>
@@ -3724,10 +3726,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>65.42520756919177</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="41">
@@ -3746,7 +3748,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E41" t="n">
-        <v>410.1968133282722</v>
+        <v>275.5120998317608</v>
       </c>
       <c r="F41" t="n">
         <v>416.8201079258493</v>
@@ -3755,7 +3757,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H41" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>85.48824505609757</v>
@@ -3788,16 +3790,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T41" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V41" t="n">
-        <v>292.2732044987391</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
         <v>379.9226978561831</v>
@@ -3952,19 +3954,19 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9701659793371</v>
+        <v>273.2760814510827</v>
       </c>
       <c r="V43" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
-        <v>180.6077930059089</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="44">
@@ -3977,25 +3979,25 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
-        <v>41.77736672774366</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4028,13 +4030,13 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>37.78331767565417</v>
       </c>
       <c r="W44" t="n">
         <v>379.9226978561831</v>
@@ -4141,19 +4143,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>136.1769805884545</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>237.1532516330649</v>
@@ -4192,16 +4194,16 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
   </sheetData>
@@ -4304,7 +4306,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>860.5692310196448</v>
+        <v>1270.693821706375</v>
       </c>
       <c r="C2" t="n">
         <v>860.5692310196448</v>
@@ -4328,25 +4330,25 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J2" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K2" t="n">
-        <v>558.6080202959273</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L2" t="n">
-        <v>1075.450954962253</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="M2" t="n">
-        <v>1571.411346813777</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="N2" t="n">
-        <v>2088.254281480102</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="O2" t="n">
-        <v>2088.254281480102</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="P2" t="n">
-        <v>2088.254281480102</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="Q2" t="n">
         <v>2088.254281480102</v>
@@ -4355,25 +4357,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S2" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T2" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U2" t="n">
-        <v>1695.912714533713</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V2" t="n">
-        <v>1645.266204936386</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W2" t="n">
-        <v>1261.505904071555</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X2" t="n">
-        <v>1261.505904071555</v>
+        <v>2081.851674422774</v>
       </c>
       <c r="Y2" t="n">
-        <v>860.5692310196448</v>
+        <v>1680.915001370864</v>
       </c>
     </row>
     <row r="3">
@@ -4413,22 +4415,22 @@
         <v>690.3841994575342</v>
       </c>
       <c r="L3" t="n">
-        <v>1207.22713412386</v>
+        <v>1054.568412147452</v>
       </c>
       <c r="M3" t="n">
-        <v>1207.22713412386</v>
+        <v>1054.568412147452</v>
       </c>
       <c r="N3" t="n">
-        <v>1708.850297433489</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="O3" t="n">
-        <v>1708.850297433489</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P3" t="n">
-        <v>1708.850297433489</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q3" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R3" t="n">
         <v>2088.254281480102</v>
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>873.093965943204</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="C4" t="n">
-        <v>873.093965943204</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="D4" t="n">
-        <v>873.093965943204</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="E4" t="n">
-        <v>873.093965943204</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="F4" t="n">
-        <v>708.4628400537953</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="G4" t="n">
-        <v>708.4628400537953</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="H4" t="n">
-        <v>558.8553848592519</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I4" t="n">
-        <v>558.8553848592519</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J4" t="n">
-        <v>572.9379342644625</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K4" t="n">
-        <v>727.4902619867005</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L4" t="n">
-        <v>987.3873622667611</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M4" t="n">
-        <v>1276.651418707254</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N4" t="n">
-        <v>1557.490201101505</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O4" t="n">
-        <v>1817.050811427979</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P4" t="n">
-        <v>2022.726251677591</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q4" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R4" t="n">
-        <v>2002.981563155502</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S4" t="n">
-        <v>1816.589795035412</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="T4" t="n">
-        <v>1577.041056012114</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="U4" t="n">
-        <v>1294.242908558238</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="V4" t="n">
-        <v>1111.437828083521</v>
+        <v>503.2668642681101</v>
       </c>
       <c r="W4" t="n">
-        <v>1111.437828083521</v>
+        <v>382.8468301365112</v>
       </c>
       <c r="X4" t="n">
-        <v>873.093965943204</v>
+        <v>382.8468301365112</v>
       </c>
       <c r="Y4" t="n">
-        <v>873.093965943204</v>
+        <v>158.1111315252759</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>352.673583001884</v>
+        <v>261.9049799331252</v>
       </c>
       <c r="C5" t="n">
-        <v>352.673583001884</v>
+        <v>261.9049799331252</v>
       </c>
       <c r="D5" t="n">
-        <v>352.673583001884</v>
+        <v>261.9049799331252</v>
       </c>
       <c r="E5" t="n">
-        <v>352.673583001884</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F5" t="n">
-        <v>352.673583001884</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G5" t="n">
-        <v>352.673583001884</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H5" t="n">
         <v>41.76508562960205</v>
@@ -4568,19 +4570,19 @@
         <v>41.76508562960205</v>
       </c>
       <c r="K5" t="n">
-        <v>41.76508562960205</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="L5" t="n">
-        <v>558.6080202959273</v>
+        <v>1014.011766457887</v>
       </c>
       <c r="M5" t="n">
-        <v>1014.011766457887</v>
+        <v>1530.854701124212</v>
       </c>
       <c r="N5" t="n">
         <v>1530.854701124212</v>
       </c>
       <c r="O5" t="n">
-        <v>2047.697635790537</v>
+        <v>1530.854701124212</v>
       </c>
       <c r="P5" t="n">
         <v>2047.697635790537</v>
@@ -4595,22 +4597,22 @@
         <v>1952.973206274203</v>
       </c>
       <c r="T5" t="n">
-        <v>1952.973206274203</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U5" t="n">
-        <v>1887.851509413192</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="V5" t="n">
-        <v>1538.013954749673</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="W5" t="n">
-        <v>1154.253653884841</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="X5" t="n">
-        <v>753.6102560537939</v>
+        <v>1073.062832649525</v>
       </c>
       <c r="Y5" t="n">
-        <v>352.673583001884</v>
+        <v>672.1261595976147</v>
       </c>
     </row>
     <row r="6">
@@ -4644,28 +4646,28 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J6" t="n">
-        <v>234.5779431922353</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K6" t="n">
-        <v>234.5779431922353</v>
+        <v>497.5713418949007</v>
       </c>
       <c r="L6" t="n">
-        <v>751.4208778585605</v>
+        <v>497.5713418949007</v>
       </c>
       <c r="M6" t="n">
-        <v>1268.263812524886</v>
+        <v>497.5713418949007</v>
       </c>
       <c r="N6" t="n">
-        <v>1738.409816796118</v>
+        <v>1014.414276561226</v>
       </c>
       <c r="O6" t="n">
-        <v>1738.409816796118</v>
+        <v>1531.257211227551</v>
       </c>
       <c r="P6" t="n">
-        <v>1738.409816796118</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="Q6" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R6" t="n">
         <v>2088.254281480102</v>
@@ -4699,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>555.1290119472964</v>
+        <v>1131.098935930739</v>
       </c>
       <c r="C7" t="n">
-        <v>555.1290119472964</v>
+        <v>960.0055634924552</v>
       </c>
       <c r="D7" t="n">
-        <v>395.6343672702064</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="E7" t="n">
-        <v>395.6343672702064</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="F7" t="n">
-        <v>395.6343672702064</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="G7" t="n">
-        <v>228.3839761957498</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="H7" t="n">
-        <v>78.77652100120645</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I7" t="n">
         <v>41.76508562960205</v>
@@ -4759,16 +4761,16 @@
         <v>1571.163982250452</v>
       </c>
       <c r="V7" t="n">
-        <v>1297.278237189974</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="W7" t="n">
-        <v>1018.208572698848</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="X7" t="n">
-        <v>779.8647105585317</v>
+        <v>1543.534340936018</v>
       </c>
       <c r="Y7" t="n">
-        <v>555.1290119472964</v>
+        <v>1318.798642324783</v>
       </c>
     </row>
     <row r="8">
@@ -4778,7 +4780,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>414.0691521052405</v>
+        <v>451.8896763163319</v>
       </c>
       <c r="C8" t="n">
         <v>41.76508562960205</v>
@@ -4808,19 +4810,19 @@
         <v>558.6080202959273</v>
       </c>
       <c r="L8" t="n">
-        <v>1075.450954962253</v>
+        <v>1054.568412147452</v>
       </c>
       <c r="M8" t="n">
-        <v>1250.250340018485</v>
+        <v>1054.568412147452</v>
       </c>
       <c r="N8" t="n">
-        <v>1250.250340018485</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="O8" t="n">
-        <v>1767.09327468481</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P8" t="n">
-        <v>1767.09327468481</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q8" t="n">
         <v>2088.254281480102</v>
@@ -4829,25 +4831,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S8" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T8" t="n">
-        <v>1866.047797426961</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="U8" t="n">
-        <v>1608.987305686471</v>
+        <v>1695.912714533713</v>
       </c>
       <c r="V8" t="n">
-        <v>1608.987305686471</v>
+        <v>1346.075159870194</v>
       </c>
       <c r="W8" t="n">
-        <v>1225.22700482164</v>
+        <v>1262.754253811869</v>
       </c>
       <c r="X8" t="n">
-        <v>1225.22700482164</v>
+        <v>862.1108559808214</v>
       </c>
       <c r="Y8" t="n">
-        <v>824.29033176973</v>
+        <v>862.1108559808214</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4883,25 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J9" t="n">
-        <v>41.76508562960205</v>
+        <v>187.8810127971426</v>
       </c>
       <c r="K9" t="n">
-        <v>497.5713418949007</v>
+        <v>187.8810127971426</v>
       </c>
       <c r="L9" t="n">
-        <v>1014.414276561226</v>
+        <v>704.7239474634679</v>
       </c>
       <c r="M9" t="n">
-        <v>1014.414276561226</v>
+        <v>1221.566882129793</v>
       </c>
       <c r="N9" t="n">
-        <v>1014.414276561226</v>
+        <v>1221.566882129793</v>
       </c>
       <c r="O9" t="n">
-        <v>1531.257211227551</v>
+        <v>1221.566882129793</v>
       </c>
       <c r="P9" t="n">
-        <v>2048.100145893876</v>
+        <v>1738.409816796118</v>
       </c>
       <c r="Q9" t="n">
         <v>2088.254281480102</v>
@@ -4936,13 +4938,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1131.098935930739</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="C10" t="n">
-        <v>960.0055634924552</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="D10" t="n">
-        <v>800.5109188153651</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="E10" t="n">
         <v>639.6001036836846</v>
@@ -4984,28 +4986,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R10" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S10" t="n">
-        <v>1571.163982250452</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="T10" t="n">
-        <v>1571.163982250452</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="U10" t="n">
-        <v>1571.163982250452</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="V10" t="n">
-        <v>1571.163982250452</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="W10" t="n">
-        <v>1571.163982250452</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="X10" t="n">
-        <v>1543.534340936018</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="Y10" t="n">
-        <v>1318.798642324783</v>
+        <v>777.1526093285881</v>
       </c>
     </row>
     <row r="11">
@@ -5015,52 +5017,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1303.850582784223</v>
+        <v>954.0130281207041</v>
       </c>
       <c r="C11" t="n">
-        <v>1303.850582784223</v>
+        <v>954.0130281207041</v>
       </c>
       <c r="D11" t="n">
-        <v>899.386652877284</v>
+        <v>549.5490982137646</v>
       </c>
       <c r="E11" t="n">
-        <v>549.1472603588413</v>
+        <v>135.2088827306613</v>
       </c>
       <c r="F11" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G11" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H11" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I11" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J11" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K11" t="n">
-        <v>295.9505570973564</v>
+        <v>537.7254774811266</v>
       </c>
       <c r="L11" t="n">
-        <v>812.7934917636817</v>
+        <v>1054.568412147452</v>
       </c>
       <c r="M11" t="n">
-        <v>1329.636426430007</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="N11" t="n">
-        <v>1726.536628995245</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="O11" t="n">
-        <v>1726.536628995245</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P11" t="n">
-        <v>1726.536628995245</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q11" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R11" t="n">
         <v>2088.254281480102</v>
@@ -5075,16 +5077,16 @@
         <v>2088.254281480102</v>
       </c>
       <c r="V11" t="n">
-        <v>2088.254281480102</v>
+        <v>1738.416726816583</v>
       </c>
       <c r="W11" t="n">
-        <v>1704.493980615271</v>
+        <v>1354.656425951752</v>
       </c>
       <c r="X11" t="n">
-        <v>1303.850582784223</v>
+        <v>954.0130281207041</v>
       </c>
       <c r="Y11" t="n">
-        <v>1303.850582784223</v>
+        <v>954.0130281207041</v>
       </c>
     </row>
     <row r="12">
@@ -5127,19 +5129,19 @@
         <v>751.4208778585605</v>
       </c>
       <c r="M12" t="n">
-        <v>1268.263812524886</v>
+        <v>1054.568412147451</v>
       </c>
       <c r="N12" t="n">
-        <v>1785.106747191211</v>
+        <v>1054.568412147451</v>
       </c>
       <c r="O12" t="n">
-        <v>1785.106747191211</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="P12" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q12" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R12" t="n">
         <v>2088.254281480102</v>
@@ -5173,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>41.76508562960205</v>
+        <v>1131.098935930739</v>
       </c>
       <c r="C13" t="n">
-        <v>41.76508562960205</v>
+        <v>960.0055634924552</v>
       </c>
       <c r="D13" t="n">
-        <v>41.76508562960205</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="E13" t="n">
-        <v>41.76508562960205</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="F13" t="n">
-        <v>41.76508562960205</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="G13" t="n">
-        <v>41.76508562960205</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="H13" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I13" t="n">
         <v>41.76508562960205</v>
@@ -5221,28 +5223,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R13" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S13" t="n">
-        <v>1299.499495805762</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T13" t="n">
-        <v>1059.950756782464</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U13" t="n">
-        <v>777.1526093285881</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="V13" t="n">
-        <v>503.2668642681101</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="W13" t="n">
-        <v>224.1971997769844</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="X13" t="n">
-        <v>41.76508562960205</v>
+        <v>1543.534340936018</v>
       </c>
       <c r="Y13" t="n">
-        <v>41.76508562960205</v>
+        <v>1318.798642324783</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1952.973206274203</v>
+        <v>1678.033101815613</v>
       </c>
       <c r="C14" t="n">
-        <v>1542.848615587473</v>
+        <v>1267.908511128883</v>
       </c>
       <c r="D14" t="n">
-        <v>1542.848615587473</v>
+        <v>1267.908511128883</v>
       </c>
       <c r="E14" t="n">
-        <v>1128.50840010437</v>
+        <v>871.5237817830823</v>
       </c>
       <c r="F14" t="n">
-        <v>707.4779880580572</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="G14" t="n">
-        <v>352.673583001884</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H14" t="n">
         <v>41.76508562960205</v>
@@ -5282,46 +5284,46 @@
         <v>41.76508562960205</v>
       </c>
       <c r="L14" t="n">
-        <v>558.6080202959273</v>
+        <v>537.7254774811266</v>
       </c>
       <c r="M14" t="n">
-        <v>1014.011766457887</v>
+        <v>1054.568412147452</v>
       </c>
       <c r="N14" t="n">
-        <v>1530.854701124212</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="O14" t="n">
-        <v>2047.697635790537</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="P14" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q14" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R14" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S14" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T14" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U14" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V14" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W14" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X14" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Y14" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
     </row>
     <row r="15">
@@ -5358,25 +5360,25 @@
         <v>41.76508562960205</v>
       </c>
       <c r="K15" t="n">
-        <v>41.76508562960205</v>
+        <v>497.5713418949007</v>
       </c>
       <c r="L15" t="n">
-        <v>41.76508562960205</v>
+        <v>675.1644281008379</v>
       </c>
       <c r="M15" t="n">
-        <v>558.6080202959273</v>
+        <v>675.1644281008379</v>
       </c>
       <c r="N15" t="n">
-        <v>1075.450954962253</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="O15" t="n">
-        <v>1592.293889628578</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="P15" t="n">
-        <v>2088.254281480102</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="Q15" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R15" t="n">
         <v>2088.254281480102</v>
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1678.033101815613</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C17" t="n">
-        <v>1267.908511128883</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D17" t="n">
-        <v>863.4445812219433</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E17" t="n">
-        <v>449.10436573884</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F17" t="n">
-        <v>439.0253456848109</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G17" t="n">
-        <v>439.0253456848109</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H17" t="n">
-        <v>128.1168483125289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I17" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J17" t="n">
-        <v>41.76508562960205</v>
+        <v>347.4291691583772</v>
       </c>
       <c r="K17" t="n">
-        <v>41.76508562960205</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L17" t="n">
-        <v>558.6080202959273</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M17" t="n">
-        <v>1075.450954962253</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N17" t="n">
-        <v>1592.293889628578</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O17" t="n">
-        <v>1592.293889628578</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P17" t="n">
-        <v>1767.09327468481</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q17" t="n">
-        <v>2088.254281480102</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R17" t="n">
-        <v>2088.254281480102</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S17" t="n">
-        <v>2088.254281480102</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T17" t="n">
-        <v>2088.254281480102</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="U17" t="n">
-        <v>2088.254281480102</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V17" t="n">
-        <v>2088.254281480102</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W17" t="n">
-        <v>2088.254281480102</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X17" t="n">
-        <v>2088.254281480102</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y17" t="n">
-        <v>2088.254281480102</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>720.5959275161365</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C18" t="n">
-        <v>586.6008562650821</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D18" t="n">
-        <v>469.7036984844746</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E18" t="n">
-        <v>349.2108824768026</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F18" t="n">
-        <v>240.2510026593071</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G18" t="n">
-        <v>133.2608899736458</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H18" t="n">
-        <v>62.51367700936187</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I18" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J18" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K18" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L18" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M18" t="n">
-        <v>558.6080202959273</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N18" t="n">
-        <v>1054.568412147451</v>
+        <v>1085.931338311245</v>
       </c>
       <c r="O18" t="n">
-        <v>1571.411346813777</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="P18" t="n">
-        <v>2088.254281480102</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q18" t="n">
-        <v>2088.254281480102</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R18" t="n">
-        <v>2088.254281480102</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S18" t="n">
-        <v>1980.264271594411</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T18" t="n">
-        <v>1820.922407781419</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U18" t="n">
-        <v>1623.571596919638</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V18" t="n">
-        <v>1409.860069912671</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W18" t="n">
-        <v>1196.626901649</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X18" t="n">
-        <v>1020.300919787893</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y18" t="n">
-        <v>860.8989601517231</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>41.76508562960205</v>
+        <v>171.7547144715318</v>
       </c>
       <c r="C19" t="n">
-        <v>41.76508562960205</v>
+        <v>171.7547144715318</v>
       </c>
       <c r="D19" t="n">
-        <v>41.76508562960205</v>
+        <v>171.7547144715318</v>
       </c>
       <c r="E19" t="n">
-        <v>41.76508562960205</v>
+        <v>171.7547144715318</v>
       </c>
       <c r="F19" t="n">
-        <v>41.76508562960205</v>
+        <v>171.7547144715318</v>
       </c>
       <c r="G19" t="n">
-        <v>41.76508562960205</v>
+        <v>171.7547144715318</v>
       </c>
       <c r="H19" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I19" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J19" t="n">
-        <v>55.84763503481257</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K19" t="n">
-        <v>210.3999627570506</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L19" t="n">
-        <v>470.2970630371111</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M19" t="n">
-        <v>759.5611194776044</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N19" t="n">
-        <v>1040.399901871855</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O19" t="n">
-        <v>1299.960512198329</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P19" t="n">
-        <v>1505.635952447941</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q19" t="n">
-        <v>1571.163982250452</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R19" t="n">
-        <v>1528.194848389704</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S19" t="n">
-        <v>1341.803080269615</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T19" t="n">
-        <v>1102.254341246317</v>
+        <v>1196.702087168085</v>
       </c>
       <c r="U19" t="n">
-        <v>819.4561937924411</v>
+        <v>913.9039397142094</v>
       </c>
       <c r="V19" t="n">
-        <v>545.570448731963</v>
+        <v>913.9039397142094</v>
       </c>
       <c r="W19" t="n">
-        <v>266.5007842408373</v>
+        <v>634.8342752230838</v>
       </c>
       <c r="X19" t="n">
-        <v>266.5007842408373</v>
+        <v>396.4904130827671</v>
       </c>
       <c r="Y19" t="n">
-        <v>41.76508562960205</v>
+        <v>171.7547144715318</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2237.518802661711</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C20" t="n">
-        <v>2139.066799289355</v>
+        <v>1828.158301917073</v>
       </c>
       <c r="D20" t="n">
-        <v>1734.602869382415</v>
+        <v>1423.694372010133</v>
       </c>
       <c r="E20" t="n">
-        <v>1320.262653899312</v>
+        <v>1009.35415652703</v>
       </c>
       <c r="F20" t="n">
-        <v>899.2322418529996</v>
+        <v>588.3237444807176</v>
       </c>
       <c r="G20" t="n">
-        <v>490.5039577458317</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="H20" t="n">
         <v>179.5954603735497</v>
@@ -5777,25 +5779,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S20" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T20" t="n">
-        <v>4439.978400477999</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U20" t="n">
-        <v>4182.917908737509</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V20" t="n">
-        <v>3833.080354073989</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W20" t="n">
-        <v>3449.320053209158</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X20" t="n">
-        <v>3048.67665537811</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y20" t="n">
-        <v>2647.7399823262</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>772.0745395771571</v>
+        <v>3294.526530567174</v>
       </c>
       <c r="C21" t="n">
-        <v>638.0794683261029</v>
+        <v>3160.531459316119</v>
       </c>
       <c r="D21" t="n">
-        <v>521.1823105454953</v>
+        <v>3043.634301535512</v>
       </c>
       <c r="E21" t="n">
-        <v>400.6894945378233</v>
+        <v>2923.14148552784</v>
       </c>
       <c r="F21" t="n">
-        <v>291.7296147203278</v>
+        <v>2814.181605710345</v>
       </c>
       <c r="G21" t="n">
-        <v>184.7395020346666</v>
+        <v>2707.191493024683</v>
       </c>
       <c r="H21" t="n">
-        <v>113.9922890703826</v>
+        <v>2636.4442800604</v>
       </c>
       <c r="I21" t="n">
-        <v>93.2436976906228</v>
+        <v>2615.69568868064</v>
       </c>
       <c r="J21" t="n">
-        <v>93.2436976906228</v>
+        <v>2808.508546243273</v>
       </c>
       <c r="K21" t="n">
-        <v>93.2436976906228</v>
+        <v>3264.314802508572</v>
       </c>
       <c r="L21" t="n">
-        <v>93.2436976906228</v>
+        <v>3264.314802508572</v>
       </c>
       <c r="M21" t="n">
-        <v>704.368908940975</v>
+        <v>3264.314802508572</v>
       </c>
       <c r="N21" t="n">
-        <v>1578.027001052593</v>
+        <v>3264.314802508572</v>
       </c>
       <c r="O21" t="n">
-        <v>1578.027001052593</v>
+        <v>3721.075007995997</v>
       </c>
       <c r="P21" t="n">
-        <v>2139.732893541123</v>
+        <v>4282.780900484527</v>
       </c>
       <c r="Q21" t="n">
-        <v>2139.732893541123</v>
+        <v>4632.62536516851</v>
       </c>
       <c r="R21" t="n">
-        <v>2139.732893541123</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S21" t="n">
-        <v>2031.742883655432</v>
+        <v>4554.194874645448</v>
       </c>
       <c r="T21" t="n">
-        <v>1872.40101984244</v>
+        <v>4394.853010832457</v>
       </c>
       <c r="U21" t="n">
-        <v>1675.050208980659</v>
+        <v>4197.502199970675</v>
       </c>
       <c r="V21" t="n">
-        <v>1461.338681973692</v>
+        <v>3983.790672963709</v>
       </c>
       <c r="W21" t="n">
-        <v>1248.105513710021</v>
+        <v>3770.557504700037</v>
       </c>
       <c r="X21" t="n">
-        <v>1071.779531848914</v>
+        <v>3594.23152283893</v>
       </c>
       <c r="Y21" t="n">
-        <v>912.3775722127438</v>
+        <v>3434.82956320276</v>
       </c>
     </row>
     <row r="22">
@@ -5884,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>649.8439173889626</v>
+        <v>744.7457566949778</v>
       </c>
       <c r="C22" t="n">
-        <v>478.7505449506791</v>
+        <v>586.0360297861687</v>
       </c>
       <c r="D22" t="n">
-        <v>319.2559002735891</v>
+        <v>586.0360297861687</v>
       </c>
       <c r="E22" t="n">
-        <v>158.3450851419086</v>
+        <v>425.1252146544881</v>
       </c>
       <c r="F22" t="n">
-        <v>93.2436976906228</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="G22" t="n">
         <v>93.2436976906228</v>
@@ -5932,28 +5934,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R22" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S22" t="n">
-        <v>1350.978107866783</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T22" t="n">
-        <v>1111.429368843485</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="U22" t="n">
-        <v>1111.429368843485</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="V22" t="n">
-        <v>837.543623783007</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="W22" t="n">
-        <v>837.543623783007</v>
+        <v>1157.181161700257</v>
       </c>
       <c r="X22" t="n">
-        <v>837.543623783007</v>
+        <v>1157.181161700257</v>
       </c>
       <c r="Y22" t="n">
-        <v>837.543623783007</v>
+        <v>932.4454630890222</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2549.191389976085</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C23" t="n">
-        <v>2139.066799289355</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D23" t="n">
-        <v>1734.602869382415</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E23" t="n">
-        <v>1320.262653899312</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F23" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G23" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H23" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I23" t="n">
         <v>93.2436976906228</v>
@@ -6017,22 +6019,22 @@
         <v>4662.18488453114</v>
       </c>
       <c r="T23" t="n">
-        <v>4439.978400477999</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U23" t="n">
-        <v>4182.917908737509</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V23" t="n">
-        <v>3833.080354073989</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W23" t="n">
-        <v>3449.320053209158</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X23" t="n">
-        <v>3048.67665537811</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y23" t="n">
-        <v>2959.412569640574</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>772.0745395771571</v>
+        <v>3294.526530567174</v>
       </c>
       <c r="C24" t="n">
-        <v>638.0794683261029</v>
+        <v>3160.531459316119</v>
       </c>
       <c r="D24" t="n">
-        <v>521.1823105454953</v>
+        <v>3043.634301535512</v>
       </c>
       <c r="E24" t="n">
-        <v>400.6894945378233</v>
+        <v>2923.14148552784</v>
       </c>
       <c r="F24" t="n">
-        <v>291.7296147203278</v>
+        <v>2814.181605710345</v>
       </c>
       <c r="G24" t="n">
-        <v>184.7395020346666</v>
+        <v>2707.191493024683</v>
       </c>
       <c r="H24" t="n">
-        <v>113.9922890703826</v>
+        <v>2636.4442800604</v>
       </c>
       <c r="I24" t="n">
-        <v>93.2436976906228</v>
+        <v>2615.69568868064</v>
       </c>
       <c r="J24" t="n">
-        <v>93.2436976906228</v>
+        <v>2808.508546243273</v>
       </c>
       <c r="K24" t="n">
-        <v>93.2436976906228</v>
+        <v>3264.314802508572</v>
       </c>
       <c r="L24" t="n">
-        <v>93.2436976906228</v>
+        <v>3750.634527358626</v>
       </c>
       <c r="M24" t="n">
-        <v>936.2207783851894</v>
+        <v>3750.634527358626</v>
       </c>
       <c r="N24" t="n">
-        <v>1809.878870496807</v>
+        <v>3750.634527358626</v>
       </c>
       <c r="O24" t="n">
-        <v>2139.732893541123</v>
+        <v>3750.634527358626</v>
       </c>
       <c r="P24" t="n">
-        <v>2139.732893541123</v>
+        <v>4312.340419847156</v>
       </c>
       <c r="Q24" t="n">
-        <v>2139.732893541123</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R24" t="n">
-        <v>2139.732893541123</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S24" t="n">
-        <v>2031.742883655432</v>
+        <v>4554.194874645448</v>
       </c>
       <c r="T24" t="n">
-        <v>1872.40101984244</v>
+        <v>4394.853010832457</v>
       </c>
       <c r="U24" t="n">
-        <v>1675.050208980659</v>
+        <v>4197.502199970675</v>
       </c>
       <c r="V24" t="n">
-        <v>1461.338681973692</v>
+        <v>3983.790672963709</v>
       </c>
       <c r="W24" t="n">
-        <v>1248.105513710021</v>
+        <v>3770.557504700037</v>
       </c>
       <c r="X24" t="n">
-        <v>1071.779531848914</v>
+        <v>3594.23152283893</v>
       </c>
       <c r="Y24" t="n">
-        <v>912.3775722127438</v>
+        <v>3434.82956320276</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4222.119838211426</v>
+        <v>264.3370701289063</v>
       </c>
       <c r="C25" t="n">
-        <v>4051.026465773143</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D25" t="n">
-        <v>3891.531821096053</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E25" t="n">
-        <v>3730.621005964372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F25" t="n">
-        <v>3565.989880074963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G25" t="n">
-        <v>3398.739489000507</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H25" t="n">
-        <v>3249.132033805963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I25" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J25" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K25" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L25" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M25" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N25" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O25" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P25" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q25" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R25" t="n">
-        <v>4576.912166206539</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S25" t="n">
-        <v>4390.520398086449</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T25" t="n">
-        <v>4390.520398086449</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U25" t="n">
-        <v>4390.520398086449</v>
+        <v>1339.844446857597</v>
       </c>
       <c r="V25" t="n">
-        <v>4390.520398086449</v>
+        <v>1065.958701797119</v>
       </c>
       <c r="W25" t="n">
-        <v>4390.520398086449</v>
+        <v>786.8890373059935</v>
       </c>
       <c r="X25" t="n">
-        <v>4390.520398086449</v>
+        <v>548.5451751656769</v>
       </c>
       <c r="Y25" t="n">
-        <v>4390.520398086449</v>
+        <v>323.8094765544416</v>
       </c>
     </row>
     <row r="26">
@@ -6269,7 +6271,7 @@
         <v>3314.038978003258</v>
       </c>
       <c r="Y26" t="n">
-        <v>2959.412569640574</v>
+        <v>2913.102304951348</v>
       </c>
     </row>
     <row r="27">
@@ -6306,25 +6308,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K27" t="n">
-        <v>93.2436976906228</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L27" t="n">
-        <v>393.5382013723083</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="M27" t="n">
-        <v>1236.515282066875</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N27" t="n">
-        <v>2110.173374178493</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O27" t="n">
-        <v>2110.173374178493</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P27" t="n">
-        <v>2110.173374178493</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q27" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R27" t="n">
         <v>2139.732893541123</v>
@@ -6358,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>916.6240469015422</v>
+        <v>795.220650744195</v>
       </c>
       <c r="C28" t="n">
-        <v>745.5306744632587</v>
+        <v>795.220650744195</v>
       </c>
       <c r="D28" t="n">
-        <v>586.0360297861687</v>
+        <v>735.6434849807119</v>
       </c>
       <c r="E28" t="n">
-        <v>425.1252146544881</v>
+        <v>574.7326698490315</v>
       </c>
       <c r="F28" t="n">
-        <v>260.4940887650794</v>
+        <v>410.1015439596227</v>
       </c>
       <c r="G28" t="n">
-        <v>93.2436976906228</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="H28" t="n">
         <v>93.2436976906228</v>
@@ -6406,28 +6408,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R28" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S28" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="T28" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="U28" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="V28" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="W28" t="n">
-        <v>1567.403314047138</v>
+        <v>1258.300211495747</v>
       </c>
       <c r="X28" t="n">
-        <v>1329.059451906822</v>
+        <v>1019.95634935543</v>
       </c>
       <c r="Y28" t="n">
-        <v>1104.323753295587</v>
+        <v>795.220650744195</v>
       </c>
     </row>
     <row r="29">
@@ -6437,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2549.191389976085</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C29" t="n">
-        <v>2139.066799289355</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D29" t="n">
-        <v>1734.602869382415</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E29" t="n">
-        <v>1320.262653899312</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F29" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G29" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H29" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I29" t="n">
         <v>93.2436976906228</v>
@@ -6491,22 +6493,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T29" t="n">
-        <v>4526.90380932524</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U29" t="n">
-        <v>4494.590496051882</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V29" t="n">
-        <v>4144.752941388363</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W29" t="n">
-        <v>3760.992640523532</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X29" t="n">
-        <v>3360.349242692484</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y29" t="n">
-        <v>2959.412569640574</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="30">
@@ -6540,19 +6542,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J30" t="n">
-        <v>286.056555253256</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K30" t="n">
-        <v>741.8628115185547</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L30" t="n">
-        <v>1402.950983437843</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M30" t="n">
-        <v>2139.732893541123</v>
+        <v>562.1177108836107</v>
       </c>
       <c r="N30" t="n">
-        <v>2139.732893541123</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O30" t="n">
         <v>2139.732893541123</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1182.57754799176</v>
+        <v>3249.132033805963</v>
       </c>
       <c r="C31" t="n">
-        <v>1011.484175553476</v>
+        <v>3249.132033805963</v>
       </c>
       <c r="D31" t="n">
-        <v>851.989530876386</v>
+        <v>3249.132033805963</v>
       </c>
       <c r="E31" t="n">
-        <v>691.0787157447054</v>
+        <v>3249.132033805963</v>
       </c>
       <c r="F31" t="n">
-        <v>526.4475898552967</v>
+        <v>3249.132033805963</v>
       </c>
       <c r="G31" t="n">
-        <v>359.19719878084</v>
+        <v>3249.132033805963</v>
       </c>
       <c r="H31" t="n">
-        <v>209.5897435862967</v>
+        <v>3249.132033805963</v>
       </c>
       <c r="I31" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="J31" t="n">
-        <v>107.3262470958333</v>
+        <v>3146.8685373155</v>
       </c>
       <c r="K31" t="n">
-        <v>261.8785748180713</v>
+        <v>3301.420865037738</v>
       </c>
       <c r="L31" t="n">
-        <v>521.7756750981318</v>
+        <v>3561.317965317798</v>
       </c>
       <c r="M31" t="n">
-        <v>811.0397315386251</v>
+        <v>3850.582021758291</v>
       </c>
       <c r="N31" t="n">
-        <v>1091.878513932875</v>
+        <v>4131.420804152542</v>
       </c>
       <c r="O31" t="n">
-        <v>1351.43912425935</v>
+        <v>4390.981414479016</v>
       </c>
       <c r="P31" t="n">
-        <v>1557.114564508962</v>
+        <v>4596.656854728629</v>
       </c>
       <c r="Q31" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R31" t="n">
-        <v>1622.642594311473</v>
+        <v>4576.912166206539</v>
       </c>
       <c r="S31" t="n">
-        <v>1622.642594311473</v>
+        <v>4390.520398086449</v>
       </c>
       <c r="T31" t="n">
-        <v>1383.093855288175</v>
+        <v>4150.971659063151</v>
       </c>
       <c r="U31" t="n">
-        <v>1383.093855288175</v>
+        <v>3868.173511609275</v>
       </c>
       <c r="V31" t="n">
-        <v>1383.093855288175</v>
+        <v>3594.287766548796</v>
       </c>
       <c r="W31" t="n">
-        <v>1383.093855288175</v>
+        <v>3315.218102057671</v>
       </c>
       <c r="X31" t="n">
-        <v>1383.093855288175</v>
+        <v>3249.132033805963</v>
       </c>
       <c r="Y31" t="n">
-        <v>1370.277254385804</v>
+        <v>3249.132033805963</v>
       </c>
     </row>
     <row r="32">
@@ -6674,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2549.191389976085</v>
+        <v>2324.444211508952</v>
       </c>
       <c r="C32" t="n">
-        <v>2139.066799289355</v>
+        <v>1914.319620822223</v>
       </c>
       <c r="D32" t="n">
-        <v>1734.602869382415</v>
+        <v>1509.855690915283</v>
       </c>
       <c r="E32" t="n">
-        <v>1320.262653899312</v>
+        <v>1095.51547543218</v>
       </c>
       <c r="F32" t="n">
-        <v>899.2322418529996</v>
+        <v>674.4850633858673</v>
       </c>
       <c r="G32" t="n">
-        <v>490.5039577458317</v>
+        <v>265.7567792786995</v>
       </c>
       <c r="H32" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I32" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J32" t="n">
-        <v>347.4291691583772</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K32" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L32" t="n">
         <v>1598.180070079655</v>
@@ -6728,22 +6730,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T32" t="n">
-        <v>4304.697325272099</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="U32" t="n">
-        <v>4047.636833531609</v>
+        <v>4269.84331758475</v>
       </c>
       <c r="V32" t="n">
-        <v>4047.636833531609</v>
+        <v>3920.005762921231</v>
       </c>
       <c r="W32" t="n">
-        <v>3760.992640523532</v>
+        <v>3536.245462056399</v>
       </c>
       <c r="X32" t="n">
-        <v>3360.349242692484</v>
+        <v>3135.602064225352</v>
       </c>
       <c r="Y32" t="n">
-        <v>2959.412569640574</v>
+        <v>2734.665391173442</v>
       </c>
     </row>
     <row r="33">
@@ -6777,25 +6779,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J33" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K33" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="L33" t="n">
-        <v>423.0977207349383</v>
+        <v>947.1447271725442</v>
       </c>
       <c r="M33" t="n">
-        <v>1266.074801429505</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N33" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O33" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P33" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q33" t="n">
         <v>2139.732893541123</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>93.2436976906228</v>
+        <v>3303.879360348573</v>
       </c>
       <c r="C34" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="D34" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="E34" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="F34" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="G34" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="H34" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="I34" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="J34" t="n">
-        <v>107.3262470958333</v>
+        <v>3146.8685373155</v>
       </c>
       <c r="K34" t="n">
-        <v>261.8785748180713</v>
+        <v>3301.420865037738</v>
       </c>
       <c r="L34" t="n">
-        <v>521.7756750981318</v>
+        <v>3561.317965317798</v>
       </c>
       <c r="M34" t="n">
-        <v>811.0397315386251</v>
+        <v>3850.582021758291</v>
       </c>
       <c r="N34" t="n">
-        <v>1091.878513932875</v>
+        <v>4131.420804152542</v>
       </c>
       <c r="O34" t="n">
-        <v>1351.43912425935</v>
+        <v>4390.981414479016</v>
       </c>
       <c r="P34" t="n">
-        <v>1557.114564508962</v>
+        <v>4596.656854728629</v>
       </c>
       <c r="Q34" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R34" t="n">
-        <v>1537.369875986873</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S34" t="n">
-        <v>1350.978107866783</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T34" t="n">
-        <v>1111.429368843485</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U34" t="n">
-        <v>828.6312213896092</v>
+        <v>4507.614037045773</v>
       </c>
       <c r="V34" t="n">
-        <v>554.7454763291312</v>
+        <v>4233.728291985295</v>
       </c>
       <c r="W34" t="n">
-        <v>275.6758118380055</v>
+        <v>3954.658627494169</v>
       </c>
       <c r="X34" t="n">
-        <v>93.2436976906228</v>
+        <v>3716.314765353853</v>
       </c>
       <c r="Y34" t="n">
-        <v>93.2436976906228</v>
+        <v>3491.579066742617</v>
       </c>
     </row>
     <row r="35">
@@ -6911,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2549.191389976085</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C35" t="n">
-        <v>2139.066799289355</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D35" t="n">
-        <v>1734.602869382415</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="E35" t="n">
         <v>1320.262653899312</v>
@@ -6935,10 +6937,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J35" t="n">
-        <v>347.4291691583772</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K35" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L35" t="n">
         <v>1598.180070079655</v>
@@ -6962,25 +6964,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S35" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T35" t="n">
-        <v>4662.18488453114</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U35" t="n">
-        <v>4494.590496051882</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V35" t="n">
-        <v>4144.752941388363</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W35" t="n">
-        <v>3760.992640523532</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X35" t="n">
-        <v>3360.349242692484</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y35" t="n">
-        <v>2959.412569640574</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="36">
@@ -7017,22 +7019,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K36" t="n">
-        <v>93.2436976906228</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L36" t="n">
-        <v>93.2436976906228</v>
+        <v>946.9113481625727</v>
       </c>
       <c r="M36" t="n">
-        <v>936.2207783851894</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="N36" t="n">
-        <v>1809.878870496807</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="O36" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="P36" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q36" t="n">
         <v>2139.732893541123</v>
@@ -7132,13 +7134,13 @@
         <v>1622.642594311473</v>
       </c>
       <c r="W37" t="n">
-        <v>1622.642594311473</v>
+        <v>1343.572929820347</v>
       </c>
       <c r="X37" t="n">
-        <v>1595.012952997039</v>
+        <v>1343.572929820347</v>
       </c>
       <c r="Y37" t="n">
-        <v>1370.277254385804</v>
+        <v>1343.572929820347</v>
       </c>
     </row>
     <row r="38">
@@ -7148,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2549.191389976085</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C38" t="n">
-        <v>2139.066799289355</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D38" t="n">
-        <v>1734.602869382415</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E38" t="n">
-        <v>1320.262653899312</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F38" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G38" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H38" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I38" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J38" t="n">
-        <v>347.4291691583772</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K38" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L38" t="n">
         <v>1598.180070079655</v>
@@ -7199,25 +7201,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S38" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T38" t="n">
-        <v>4526.90380932524</v>
+        <v>4439.978400477999</v>
       </c>
       <c r="U38" t="n">
-        <v>4494.590496051882</v>
+        <v>4182.917908737509</v>
       </c>
       <c r="V38" t="n">
-        <v>4144.752941388363</v>
+        <v>3833.080354073989</v>
       </c>
       <c r="W38" t="n">
-        <v>3760.992640523532</v>
+        <v>3449.320053209158</v>
       </c>
       <c r="X38" t="n">
-        <v>3360.349242692484</v>
+        <v>3048.67665537811</v>
       </c>
       <c r="Y38" t="n">
-        <v>2959.412569640574</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>772.0745395771571</v>
+        <v>3294.526530567174</v>
       </c>
       <c r="C39" t="n">
-        <v>638.0794683261029</v>
+        <v>3160.531459316119</v>
       </c>
       <c r="D39" t="n">
-        <v>521.1823105454953</v>
+        <v>3043.634301535512</v>
       </c>
       <c r="E39" t="n">
-        <v>400.6894945378233</v>
+        <v>2923.14148552784</v>
       </c>
       <c r="F39" t="n">
-        <v>291.7296147203278</v>
+        <v>2814.181605710345</v>
       </c>
       <c r="G39" t="n">
-        <v>184.7395020346666</v>
+        <v>2707.191493024683</v>
       </c>
       <c r="H39" t="n">
-        <v>113.9922890703826</v>
+        <v>2636.4442800604</v>
       </c>
       <c r="I39" t="n">
-        <v>93.2436976906228</v>
+        <v>2615.69568868064</v>
       </c>
       <c r="J39" t="n">
-        <v>93.2436976906228</v>
+        <v>2808.508546243273</v>
       </c>
       <c r="K39" t="n">
-        <v>93.2436976906228</v>
+        <v>3264.314802508572</v>
       </c>
       <c r="L39" t="n">
-        <v>423.0977207349383</v>
+        <v>3264.314802508572</v>
       </c>
       <c r="M39" t="n">
-        <v>1266.074801429505</v>
+        <v>3264.314802508572</v>
       </c>
       <c r="N39" t="n">
-        <v>2139.732893541123</v>
+        <v>3264.314802508572</v>
       </c>
       <c r="O39" t="n">
-        <v>2139.732893541123</v>
+        <v>3721.075007995997</v>
       </c>
       <c r="P39" t="n">
-        <v>2139.732893541123</v>
+        <v>4282.780900484527</v>
       </c>
       <c r="Q39" t="n">
-        <v>2139.732893541123</v>
+        <v>4632.62536516851</v>
       </c>
       <c r="R39" t="n">
-        <v>2139.732893541123</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S39" t="n">
-        <v>2031.742883655432</v>
+        <v>4554.194874645448</v>
       </c>
       <c r="T39" t="n">
-        <v>1872.40101984244</v>
+        <v>4394.853010832457</v>
       </c>
       <c r="U39" t="n">
-        <v>1675.050208980659</v>
+        <v>4197.502199970675</v>
       </c>
       <c r="V39" t="n">
-        <v>1461.338681973692</v>
+        <v>3983.790672963709</v>
       </c>
       <c r="W39" t="n">
-        <v>1248.105513710021</v>
+        <v>3770.557504700037</v>
       </c>
       <c r="X39" t="n">
-        <v>1071.779531848914</v>
+        <v>3594.23152283893</v>
       </c>
       <c r="Y39" t="n">
-        <v>912.3775722127438</v>
+        <v>3434.82956320276</v>
       </c>
     </row>
     <row r="40">
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C40" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D40" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E40" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F40" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G40" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H40" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I40" t="n">
         <v>93.2436976906228</v>
@@ -7354,28 +7356,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R40" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S40" t="n">
-        <v>1350.978107866783</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T40" t="n">
-        <v>1111.429368843485</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U40" t="n">
-        <v>828.6312213896092</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V40" t="n">
-        <v>554.7454763291312</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W40" t="n">
-        <v>275.6758118380055</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X40" t="n">
-        <v>209.5897435862967</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y40" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2549.191389976085</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C41" t="n">
-        <v>2139.066799289355</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D41" t="n">
-        <v>1734.602869382415</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E41" t="n">
-        <v>1320.262653899312</v>
+        <v>1009.35415652703</v>
       </c>
       <c r="F41" t="n">
-        <v>899.2322418529996</v>
+        <v>588.3237444807176</v>
       </c>
       <c r="G41" t="n">
-        <v>490.5039577458317</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="H41" t="n">
         <v>179.5954603735497</v>
@@ -7436,25 +7438,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S41" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T41" t="n">
-        <v>4439.978400477999</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U41" t="n">
-        <v>4439.978400477999</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V41" t="n">
-        <v>4144.752941388363</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W41" t="n">
-        <v>3760.992640523532</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X41" t="n">
-        <v>3360.349242692484</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y41" t="n">
-        <v>2959.412569640574</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="42">
@@ -7488,28 +7490,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J42" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K42" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L42" t="n">
-        <v>423.0977207349383</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="M42" t="n">
-        <v>1266.074801429505</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="N42" t="n">
-        <v>2139.732893541123</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="O42" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P42" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q42" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R42" t="n">
         <v>2139.732893541123</v>
@@ -7600,16 +7602,16 @@
         <v>1111.429368843485</v>
       </c>
       <c r="U43" t="n">
-        <v>828.6312213896092</v>
+        <v>835.3929229333004</v>
       </c>
       <c r="V43" t="n">
-        <v>554.7454763291312</v>
+        <v>835.3929229333004</v>
       </c>
       <c r="W43" t="n">
-        <v>275.6758118380055</v>
+        <v>556.3232584421747</v>
       </c>
       <c r="X43" t="n">
-        <v>93.2436976906228</v>
+        <v>317.9793963018581</v>
       </c>
       <c r="Y43" t="n">
         <v>93.2436976906228</v>
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>492.6927300678241</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C44" t="n">
-        <v>450.4933697367699</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D44" t="n">
-        <v>450.4933697367699</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E44" t="n">
-        <v>450.4933697367699</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F44" t="n">
-        <v>450.4933697367699</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G44" t="n">
-        <v>41.76508562960205</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H44" t="n">
-        <v>41.76508562960205</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I44" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J44" t="n">
-        <v>176.0078249962696</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K44" t="n">
-        <v>692.8507596625949</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L44" t="n">
-        <v>1209.69369432892</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M44" t="n">
-        <v>1726.536628995245</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N44" t="n">
-        <v>1726.536628995245</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O44" t="n">
-        <v>1726.536628995245</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P44" t="n">
-        <v>1726.536628995245</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q44" t="n">
-        <v>2047.697635790537</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R44" t="n">
-        <v>2088.254281480102</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S44" t="n">
-        <v>2088.254281480102</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T44" t="n">
-        <v>2088.254281480102</v>
+        <v>4439.978400477999</v>
       </c>
       <c r="U44" t="n">
-        <v>2088.254281480102</v>
+        <v>4182.917908737509</v>
       </c>
       <c r="V44" t="n">
-        <v>2088.254281480102</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W44" t="n">
-        <v>1704.493980615271</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X44" t="n">
-        <v>1303.850582784223</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y44" t="n">
-        <v>902.9139097323135</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>720.5959275161365</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C45" t="n">
-        <v>586.6008562650821</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D45" t="n">
-        <v>469.7036984844746</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E45" t="n">
-        <v>349.2108824768026</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F45" t="n">
-        <v>240.2510026593071</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G45" t="n">
-        <v>133.2608899736458</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H45" t="n">
-        <v>62.51367700936187</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I45" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J45" t="n">
-        <v>41.76508562960205</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K45" t="n">
-        <v>497.5713418949007</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L45" t="n">
-        <v>537.7254774811262</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="M45" t="n">
-        <v>1054.568412147451</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="N45" t="n">
-        <v>1571.411346813777</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="O45" t="n">
-        <v>1571.411346813777</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P45" t="n">
-        <v>2088.254281480102</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q45" t="n">
-        <v>2088.254281480102</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R45" t="n">
-        <v>2088.254281480102</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S45" t="n">
-        <v>1980.264271594411</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T45" t="n">
-        <v>1820.922407781419</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U45" t="n">
-        <v>1623.571596919638</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V45" t="n">
-        <v>1409.860069912671</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W45" t="n">
-        <v>1196.626901649</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X45" t="n">
-        <v>1020.300919787893</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y45" t="n">
-        <v>860.8989601517231</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>777.1526093285881</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C46" t="n">
-        <v>777.1526093285881</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D46" t="n">
-        <v>777.1526093285881</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E46" t="n">
-        <v>639.6001036836846</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F46" t="n">
-        <v>474.9689777942758</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G46" t="n">
-        <v>307.7185867198193</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H46" t="n">
-        <v>158.1111315252759</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I46" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J46" t="n">
-        <v>55.84763503481257</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K46" t="n">
-        <v>210.3999627570506</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L46" t="n">
-        <v>470.2970630371111</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M46" t="n">
-        <v>759.5611194776044</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N46" t="n">
-        <v>1040.399901871855</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O46" t="n">
-        <v>1299.960512198329</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P46" t="n">
-        <v>1505.635952447941</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q46" t="n">
-        <v>1571.163982250452</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R46" t="n">
-        <v>1485.891263925851</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S46" t="n">
-        <v>1299.499495805762</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T46" t="n">
-        <v>1059.950756782464</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U46" t="n">
-        <v>777.1526093285881</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V46" t="n">
-        <v>777.1526093285881</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W46" t="n">
-        <v>777.1526093285881</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X46" t="n">
-        <v>777.1526093285881</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y46" t="n">
-        <v>777.1526093285881</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
   </sheetData>
@@ -7976,28 +7978,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K2" t="n">
         <v>611.1999600432426</v>
       </c>
       <c r="L2" t="n">
-        <v>617.5489684328704</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M2" t="n">
-        <v>594.2603172363631</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N2" t="n">
-        <v>614.9758611266449</v>
+        <v>534.7878950544006</v>
       </c>
       <c r="O2" t="n">
         <v>93.18977562578313</v>
       </c>
       <c r="P2" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q2" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R2" t="n">
         <v>87.31214281472352</v>
@@ -8061,25 +8063,25 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L3" t="n">
-        <v>578.1780941808746</v>
+        <v>423.977364911776</v>
       </c>
       <c r="M3" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N3" t="n">
-        <v>559.8834573428704</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O3" t="n">
-        <v>57.751479</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P3" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q3" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R3" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8216,22 +8218,22 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K5" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L5" t="n">
-        <v>617.5489684328704</v>
+        <v>555.4891820648243</v>
       </c>
       <c r="M5" t="n">
-        <v>553.2940084590249</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N5" t="n">
-        <v>614.9758611266449</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O5" t="n">
-        <v>615.2533459958087</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P5" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q5" t="n">
         <v>90.03380439915205</v>
@@ -8292,31 +8294,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J6" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K6" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L6" t="n">
-        <v>578.1780941808746</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M6" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N6" t="n">
-        <v>528.0883472030756</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O6" t="n">
-        <v>57.751479</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P6" t="n">
-        <v>54.25963500280375</v>
+        <v>233.6465907663767</v>
       </c>
       <c r="Q6" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R6" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8456,13 +8458,13 @@
         <v>611.1999600432426</v>
       </c>
       <c r="L8" t="n">
-        <v>617.5489684328704</v>
+        <v>596.4554908421626</v>
       </c>
       <c r="M8" t="n">
-        <v>269.8552598673813</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N8" t="n">
-        <v>92.91229075661933</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O8" t="n">
         <v>615.2533459958087</v>
@@ -8471,7 +8473,7 @@
         <v>93.64936328088416</v>
       </c>
       <c r="Q8" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R8" t="n">
         <v>87.31214281472352</v>
@@ -8529,28 +8531,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J9" t="n">
-        <v>51.36923880000001</v>
+        <v>198.9610844237783</v>
       </c>
       <c r="K9" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L9" t="n">
         <v>578.1780941808746</v>
       </c>
       <c r="M9" t="n">
-        <v>57.56428373841742</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N9" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O9" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P9" t="n">
         <v>576.3232053728293</v>
       </c>
       <c r="Q9" t="n">
-        <v>97.25235142021801</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R9" t="n">
         <v>59.00019910540541</v>
@@ -8687,10 +8689,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K11" t="n">
-        <v>89.13638967321712</v>
+        <v>590.1064824525349</v>
       </c>
       <c r="L11" t="n">
         <v>617.5489684328704</v>
@@ -8699,7 +8701,7 @@
         <v>615.3537948270711</v>
       </c>
       <c r="N11" t="n">
-        <v>493.8215862770622</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O11" t="n">
         <v>93.18977562578313</v>
@@ -8708,10 +8710,10 @@
         <v>93.64936328088416</v>
       </c>
       <c r="Q11" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R11" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8775,22 +8777,22 @@
         <v>578.1780941808746</v>
       </c>
       <c r="M12" t="n">
-        <v>579.627854108443</v>
+        <v>363.7739143332568</v>
       </c>
       <c r="N12" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O12" t="n">
-        <v>57.751479</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P12" t="n">
-        <v>330.6111652313499</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q12" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R12" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8930,25 +8932,25 @@
         <v>89.13638967321712</v>
       </c>
       <c r="L14" t="n">
-        <v>617.5489684328704</v>
+        <v>596.4554908421626</v>
       </c>
       <c r="M14" t="n">
-        <v>553.2940084590249</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N14" t="n">
         <v>614.9758611266449</v>
       </c>
       <c r="O14" t="n">
-        <v>615.2533459958087</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P14" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q14" t="n">
         <v>90.03380439915205</v>
       </c>
       <c r="R14" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9006,13 +9008,13 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K15" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L15" t="n">
-        <v>56.11452381084905</v>
+        <v>235.5014795744219</v>
       </c>
       <c r="M15" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N15" t="n">
         <v>575.2569637637755</v>
@@ -9021,13 +9023,13 @@
         <v>579.8150493700256</v>
       </c>
       <c r="P15" t="n">
-        <v>555.229727782121</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q15" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R15" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9161,31 +9163,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>73.32359133330795</v>
+        <v>330.0765928158882</v>
       </c>
       <c r="K17" t="n">
-        <v>89.13638967321712</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L17" t="n">
-        <v>617.5489684328704</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M17" t="n">
-        <v>615.3537948270711</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N17" t="n">
-        <v>614.9758611266449</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O17" t="n">
-        <v>93.18977562578313</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P17" t="n">
-        <v>270.21439869122</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q17" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R17" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9249,19 +9251,19 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M18" t="n">
-        <v>579.627854108443</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N18" t="n">
-        <v>554.1634861730673</v>
+        <v>204.4161811978466</v>
       </c>
       <c r="O18" t="n">
-        <v>579.8150493700256</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P18" t="n">
-        <v>576.3232053728293</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q18" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R18" t="n">
         <v>59.00019910540541</v>
@@ -9419,10 +9421,10 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q20" t="n">
-        <v>414.4388617681334</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R20" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,31 +9479,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L21" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M21" t="n">
-        <v>674.8624769205913</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N21" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O21" t="n">
-        <v>57.751479</v>
+        <v>519.125423936793</v>
       </c>
       <c r="P21" t="n">
         <v>621.6393243851574</v>
       </c>
       <c r="Q21" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R21" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9714,28 +9716,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L24" t="n">
-        <v>56.11452381084905</v>
+        <v>547.3465691139345</v>
       </c>
       <c r="M24" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N24" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O24" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P24" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q24" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R24" t="n">
         <v>59.00019910540541</v>
@@ -9896,7 +9898,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R26" t="n">
-        <v>128.2784515920618</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9954,28 +9956,28 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K27" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L27" t="n">
-        <v>359.4423053075011</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M27" t="n">
-        <v>909.0562844399999</v>
+        <v>75.79096100447751</v>
       </c>
       <c r="N27" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O27" t="n">
         <v>57.751479</v>
       </c>
       <c r="P27" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q27" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R27" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10188,22 +10190,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K30" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L30" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M30" t="n">
-        <v>801.788435357892</v>
+        <v>531.1743980747688</v>
       </c>
       <c r="N30" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O30" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P30" t="n">
         <v>54.25963500280375</v>
@@ -10346,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>330.0765928158882</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K32" t="n">
         <v>632.7318453389136</v>
@@ -10367,7 +10369,7 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q32" t="n">
-        <v>414.4388617681339</v>
+        <v>414.4388617681334</v>
       </c>
       <c r="R32" t="n">
         <v>128.2784515920617</v>
@@ -10425,28 +10427,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L33" t="n">
-        <v>389.300405673794</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M33" t="n">
-        <v>909.0562844399999</v>
+        <v>341.4408586839378</v>
       </c>
       <c r="N33" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O33" t="n">
         <v>57.751479</v>
       </c>
       <c r="P33" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q33" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R33" t="n">
         <v>59.00019910540541</v>
@@ -10583,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>330.0765928158882</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K35" t="n">
         <v>632.7318453389136</v>
@@ -10665,25 +10667,25 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K36" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L36" t="n">
-        <v>56.11452381084905</v>
+        <v>457.9947199791836</v>
       </c>
       <c r="M36" t="n">
         <v>909.0562844399999</v>
       </c>
       <c r="N36" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O36" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P36" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q36" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R36" t="n">
         <v>59.00019910540541</v>
@@ -10820,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>330.0765928158882</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K38" t="n">
         <v>632.7318453389136</v>
@@ -10899,31 +10901,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L39" t="n">
-        <v>389.300405673794</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M39" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N39" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O39" t="n">
-        <v>57.751479</v>
+        <v>519.125423936793</v>
       </c>
       <c r="P39" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q39" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R39" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11136,31 +11138,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L42" t="n">
-        <v>389.300405673794</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M42" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N42" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O42" t="n">
-        <v>57.751479</v>
+        <v>519.1254239367926</v>
       </c>
       <c r="P42" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q42" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R42" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11294,25 +11296,25 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>208.9223179663055</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K44" t="n">
-        <v>611.1999600432426</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L44" t="n">
-        <v>617.5489684328704</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M44" t="n">
-        <v>615.3537948270711</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N44" t="n">
-        <v>92.91229075661933</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O44" t="n">
-        <v>93.18977562578313</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P44" t="n">
-        <v>93.64936328088416</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q44" t="n">
         <v>414.4388617681339</v>
@@ -11373,31 +11375,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
-        <v>96.67425672622828</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M45" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N45" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O45" t="n">
-        <v>57.751479</v>
+        <v>519.1254239367926</v>
       </c>
       <c r="P45" t="n">
-        <v>576.3232053728293</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q45" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R45" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22544,10 +22546,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -22595,22 +22597,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
-        <v>296.1991346155302</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
-        <v>396.636963852737</v>
+        <v>390.2983828659821</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22714,16 +22716,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22762,16 +22764,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>90.16985793990278</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>276.2789678462144</v>
+        <v>157.0631340559315</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -22781,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>406.0233447798626</v>
@@ -22790,7 +22792,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E5" t="n">
-        <v>410.1968133282722</v>
+        <v>192.2583179677843</v>
       </c>
       <c r="F5" t="n">
         <v>416.8201079258493</v>
@@ -22799,7 +22801,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
         <v>85.48824505609757</v>
@@ -22835,16 +22837,16 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>190.0194069306843</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -22939,19 +22941,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -22960,7 +22962,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>78.54126441882875</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22999,13 +23001,13 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>208.6070786176243</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -23021,7 +23023,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>37.44231896898049</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>400.41929060787</v>
@@ -23069,25 +23071,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>297.4350008584415</v>
       </c>
       <c r="X8" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="9">
@@ -23176,16 +23178,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>23.12472639190918</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -23224,16 +23226,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>271.1468876098733</v>
@@ -23242,10 +23244,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>208.6070786176243</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="11">
@@ -23264,10 +23266,10 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>63.45981473501405</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>324.3107487958006</v>
       </c>
       <c r="G11" t="n">
         <v>404.6410012660961</v>
@@ -23276,7 +23278,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23315,7 +23317,7 @@
         <v>254.489886823085</v>
       </c>
       <c r="V11" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23413,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>55.35263051300493</v>
+        <v>208.6070786176243</v>
       </c>
       <c r="Y13" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23492,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23501,16 +23503,16 @@
         <v>400.41929060787</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>17.77593127592979</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>53.38464026048467</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I14" t="n">
         <v>85.48824505609757</v>
@@ -23543,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T14" t="n">
         <v>219.9844192126098</v>
@@ -23741,16 +23743,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8418780723605</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23780,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U17" t="n">
-        <v>254.489886823085</v>
+        <v>137.0114616263634</v>
       </c>
       <c r="V17" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23905,7 +23907,7 @@
         <v>165.577887163712</v>
       </c>
       <c r="H19" t="n">
-        <v>148.1113806425979</v>
+        <v>70.38547402949797</v>
       </c>
       <c r="I19" t="n">
         <v>115.1825854367171</v>
@@ -23935,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>41.88054861921439</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23947,13 +23949,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23969,7 +23971,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>308.5558614412305</v>
+        <v>134.6847134965116</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -23984,7 +23986,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24017,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24127,19 +24129,19 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>12.25980907417966</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>98.53444105374169</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>148.1113806425979</v>
@@ -24172,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U22" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24224,7 +24226,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24257,10 +24259,10 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>3.083197172522915</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24272,7 +24274,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>308.5558614412303</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24361,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>19.10615505383146</v>
+        <v>126.945026968824</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T25" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U25" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24440,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>45.84716204233371</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24509,7 +24511,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y26" t="n">
-        <v>45.84716204233382</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24598,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>98.91830412447081</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24616,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>115.1825854367171</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>184.5278504388888</v>
@@ -24661,7 +24663,7 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
-        <v>221.5920803845231</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24698,7 +24700,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24731,16 +24733,16 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>222.4997066824603</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>356.9958808389729</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24835,25 +24837,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24883,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>235.9604235189134</v>
+        <v>170.5352159497228</v>
       </c>
       <c r="Y31" t="n">
-        <v>209.7999067317755</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="32">
@@ -24932,10 +24934,10 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>137.0114616263633</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24968,16 +24970,16 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>96.14494677818658</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25072,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>157.8996982303191</v>
@@ -25120,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>126.9450269688244</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25138,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>55.35263051300456</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25157,10 +25159,10 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>32.28731256679833</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -25202,13 +25204,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>88.57144222861982</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25309,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>26.43728131980203</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25372,13 +25374,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>208.6070786176239</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="38">
@@ -25409,7 +25411,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25439,13 +25441,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T38" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>222.4997066824603</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25457,7 +25459,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>223.0676163851325</v>
       </c>
     </row>
     <row r="39">
@@ -25567,7 +25569,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25612,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>170.5352159497217</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>222.4883416251229</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="41">
@@ -25634,7 +25636,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>134.6847134965114</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25643,7 +25645,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25676,16 +25678,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>54.06597461814499</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25840,19 +25842,19 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>6.694084528254336</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>55.35263051300456</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25865,25 +25867,25 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>364.2459780521189</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25916,13 +25918,13 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T44" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>346.3391791168841</v>
+        <v>308.5558614412299</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26029,19 +26031,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
-        <v>23.12472639190918</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26080,16 +26082,16 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>523644.0244195703</v>
+        <v>523644.0244195702</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>523644.0244195704</v>
+        <v>523644.0244195702</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>523644.0244195702</v>
+        <v>523644.0244195703</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>523644.0244195703</v>
+        <v>523644.0244195702</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>523644.0244195703</v>
+        <v>797268.2730120016</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>797268.2730120014</v>
+        <v>797268.2730120015</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>797268.2730120015</v>
+        <v>797268.2730120019</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>797268.2730120015</v>
+        <v>797268.2730120018</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>797268.2730120016</v>
+        <v>797268.2730120018</v>
       </c>
     </row>
     <row r="13">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>523644.0244195704</v>
+        <v>797268.2730120018</v>
       </c>
     </row>
   </sheetData>
@@ -26326,34 +26328,34 @@
         <v>171233.1127674947</v>
       </c>
       <c r="G2" t="n">
-        <v>171233.1127674947</v>
+        <v>260683.8007815844</v>
       </c>
       <c r="H2" t="n">
+        <v>260683.8007815845</v>
+      </c>
+      <c r="I2" t="n">
         <v>260683.8007815844</v>
       </c>
-      <c r="I2" t="n">
-        <v>260683.8007815845</v>
-      </c>
       <c r="J2" t="n">
-        <v>260683.8007815845</v>
+        <v>260683.8007815844</v>
       </c>
       <c r="K2" t="n">
-        <v>260683.8007815845</v>
+        <v>260683.8007815844</v>
       </c>
       <c r="L2" t="n">
         <v>260683.8007815845</v>
       </c>
       <c r="M2" t="n">
+        <v>260683.8007815844</v>
+      </c>
+      <c r="N2" t="n">
+        <v>260683.8007815846</v>
+      </c>
+      <c r="O2" t="n">
         <v>260683.8007815845</v>
       </c>
-      <c r="N2" t="n">
-        <v>260683.8007815845</v>
-      </c>
-      <c r="O2" t="n">
-        <v>260683.8007815844</v>
-      </c>
       <c r="P2" t="n">
-        <v>171233.1127674947</v>
+        <v>260683.8007815846</v>
       </c>
     </row>
     <row r="3">
@@ -26378,10 +26380,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>176368.9423343109</v>
       </c>
       <c r="H3" t="n">
-        <v>173617.4105196494</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26402,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>154854.7433887088</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,10 +26417,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>29404.49246814041</v>
+        <v>29404.49246814042</v>
       </c>
       <c r="C4" t="n">
-        <v>29404.49246814041</v>
+        <v>29404.49246814042</v>
       </c>
       <c r="D4" t="n">
         <v>29404.49246814042</v>
@@ -26430,25 +26432,25 @@
         <v>29404.49246814042</v>
       </c>
       <c r="G4" t="n">
-        <v>29404.49246814042</v>
+        <v>44919.86535090265</v>
       </c>
       <c r="H4" t="n">
+        <v>44919.86535090265</v>
+      </c>
+      <c r="I4" t="n">
+        <v>44919.86535090263</v>
+      </c>
+      <c r="J4" t="n">
         <v>44919.86535090264</v>
-      </c>
-      <c r="I4" t="n">
-        <v>44919.86535090265</v>
-      </c>
-      <c r="J4" t="n">
-        <v>44919.86535090265</v>
       </c>
       <c r="K4" t="n">
         <v>44919.86535090264</v>
       </c>
       <c r="L4" t="n">
-        <v>44919.86535090265</v>
+        <v>44919.86535090264</v>
       </c>
       <c r="M4" t="n">
-        <v>44919.86535090265</v>
+        <v>44919.86535090264</v>
       </c>
       <c r="N4" t="n">
         <v>44919.86535090265</v>
@@ -26457,7 +26459,7 @@
         <v>44919.86535090265</v>
       </c>
       <c r="P4" t="n">
-        <v>29404.49246814042</v>
+        <v>44919.86535090265</v>
       </c>
     </row>
     <row r="5">
@@ -26482,7 +26484,7 @@
         <v>31741.46507849755</v>
       </c>
       <c r="G5" t="n">
-        <v>31741.46507849755</v>
+        <v>70865.21024487332</v>
       </c>
       <c r="H5" t="n">
         <v>70865.21024487332</v>
@@ -26509,7 +26511,7 @@
         <v>70865.21024487332</v>
       </c>
       <c r="P5" t="n">
-        <v>31741.46507849755</v>
+        <v>70865.21024487332</v>
       </c>
     </row>
     <row r="6">
@@ -26519,13 +26521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-98495.95467225733</v>
+        <v>-98495.95467225731</v>
       </c>
       <c r="C6" t="n">
         <v>76459.55522085671</v>
       </c>
       <c r="D6" t="n">
-        <v>76459.55522085677</v>
+        <v>76459.55522085671</v>
       </c>
       <c r="E6" t="n">
         <v>110087.1552208567</v>
@@ -26534,16 +26536,16 @@
         <v>110087.1552208568</v>
       </c>
       <c r="G6" t="n">
-        <v>110087.1552208567</v>
+        <v>-31470.21714850247</v>
       </c>
       <c r="H6" t="n">
-        <v>-28718.68533384089</v>
+        <v>144898.7251858086</v>
       </c>
       <c r="I6" t="n">
-        <v>144898.7251858086</v>
+        <v>144898.7251858085</v>
       </c>
       <c r="J6" t="n">
-        <v>8303.924379913515</v>
+        <v>8303.924379913471</v>
       </c>
       <c r="K6" t="n">
         <v>144898.7251858085</v>
@@ -26552,16 +26554,16 @@
         <v>144898.7251858085</v>
       </c>
       <c r="M6" t="n">
-        <v>144898.7251858086</v>
+        <v>144898.7251858085</v>
       </c>
       <c r="N6" t="n">
         <v>144898.7251858086</v>
       </c>
       <c r="O6" t="n">
-        <v>144898.7251858085</v>
+        <v>-9956.018202900217</v>
       </c>
       <c r="P6" t="n">
-        <v>110087.1552208567</v>
+        <v>144898.7251858086</v>
       </c>
     </row>
   </sheetData>
@@ -26802,7 +26804,7 @@
         <v>522.0635703700256</v>
       </c>
       <c r="G4" t="n">
-        <v>522.0635703700256</v>
+        <v>1165.546221132785</v>
       </c>
       <c r="H4" t="n">
         <v>1165.546221132785</v>
@@ -26829,7 +26831,7 @@
         <v>1165.546221132785</v>
       </c>
       <c r="P4" t="n">
-        <v>522.0635703700256</v>
+        <v>1165.546221132785</v>
       </c>
     </row>
   </sheetData>
@@ -27024,10 +27026,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>643.4826507627594</v>
       </c>
       <c r="H4" t="n">
-        <v>643.4826507627594</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27048,7 +27050,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>643.4826507627594</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27270,10 +27272,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>643.4826507627594</v>
       </c>
       <c r="P4" t="n">
-        <v>643.4826507627594</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34696,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K2" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>441.8756042977812</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="M2" t="n">
-        <v>500.9700927793177</v>
-      </c>
-      <c r="N2" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34781,25 +34783,25 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L3" t="n">
+        <v>367.862841100927</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>506.6900639491205</v>
-      </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34936,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L5" t="n">
+        <v>460.0037840019794</v>
+      </c>
+      <c r="M5" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="M5" t="n">
-        <v>460.0037840019794</v>
-      </c>
       <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
         <v>522.0635703700256</v>
-      </c>
-      <c r="O5" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35012,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="M6" t="n">
+      <c r="O6" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="N6" t="n">
-        <v>474.8949538093257</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>179.3869557635729</v>
       </c>
       <c r="Q6" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35176,13 +35178,13 @@
         <v>522.0635703700256</v>
       </c>
       <c r="L8" t="n">
+        <v>500.9700927793178</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
         <v>522.0635703700256</v>
-      </c>
-      <c r="M8" t="n">
-        <v>176.5650354103359</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>522.0635703700256</v>
@@ -35191,7 +35193,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>147.5918456237783</v>
       </c>
       <c r="K9" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="Q9" t="n">
-        <v>40.55973291537929</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,10 +35409,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>500.9700927793178</v>
       </c>
       <c r="L11" t="n">
         <v>522.0635703700256</v>
@@ -35419,7 +35421,7 @@
         <v>522.0635703700256</v>
       </c>
       <c r="N11" t="n">
-        <v>400.9092955204429</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -35428,10 +35430,10 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35495,22 +35497,22 @@
         <v>522.0635703700256</v>
       </c>
       <c r="M12" t="n">
+        <v>306.2096305948393</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="N12" t="n">
+      <c r="P12" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>276.3515302285462</v>
-      </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35650,25 +35652,25 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
+        <v>500.9700927793178</v>
+      </c>
+      <c r="M14" t="n">
         <v>522.0635703700256</v>
-      </c>
-      <c r="M14" t="n">
-        <v>460.0037840019794</v>
       </c>
       <c r="N14" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
       <c r="Q14" t="n">
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,13 +35728,13 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>179.3869557635729</v>
       </c>
       <c r="M15" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>522.0635703700256</v>
@@ -35741,13 +35743,13 @@
         <v>522.0635703700256</v>
       </c>
       <c r="P15" t="n">
-        <v>500.9700927793172</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35881,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>256.7530014825803</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L17" t="n">
-        <v>522.0635703700256</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M17" t="n">
-        <v>522.0635703700256</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N17" t="n">
-        <v>522.0635703700256</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P17" t="n">
-        <v>176.5650354103359</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q17" t="n">
         <v>324.4050573689818</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35969,19 +35971,19 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>522.0635703700256</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N18" t="n">
-        <v>500.9700927793173</v>
+        <v>151.2227878040966</v>
       </c>
       <c r="O18" t="n">
-        <v>522.0635703700256</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P18" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36139,10 +36141,10 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q20" t="n">
-        <v>324.4050573689814</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R20" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>617.2981931821739</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>461.373944936793</v>
       </c>
       <c r="P21" t="n">
         <v>567.3796893823536</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36434,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="M24" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36616,7 +36618,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R26" t="n">
-        <v>40.96630877733828</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,28 +36676,28 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L27" t="n">
-        <v>303.3277814966521</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M27" t="n">
-        <v>851.4920007015825</v>
+        <v>18.22667726606008</v>
       </c>
       <c r="N27" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R27" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36908,22 +36910,22 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>744.2241516194746</v>
+        <v>473.6101143363514</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37066,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>256.7530014825803</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K32" t="n">
         <v>543.5954556656965</v>
@@ -37087,7 +37089,7 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q32" t="n">
-        <v>324.4050573689818</v>
+        <v>324.4050573689814</v>
       </c>
       <c r="R32" t="n">
         <v>40.9663087773382</v>
@@ -37145,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>333.1858818629449</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M33" t="n">
-        <v>851.4920007015825</v>
+        <v>283.8765749455204</v>
       </c>
       <c r="N33" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37303,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>256.7530014825803</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K35" t="n">
         <v>543.5954556656965</v>
@@ -37385,25 +37387,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>401.8801961683345</v>
       </c>
       <c r="M36" t="n">
         <v>851.4920007015825</v>
       </c>
       <c r="N36" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37540,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>256.7530014825803</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K38" t="n">
         <v>543.5954556656965</v>
@@ -37619,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L39" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>461.373944936793</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37856,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L42" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38014,25 +38016,25 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>135.5987266329975</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K44" t="n">
-        <v>522.0635703700256</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L44" t="n">
-        <v>522.0635703700256</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M44" t="n">
-        <v>522.0635703700256</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q44" t="n">
         <v>324.4050573689818</v>
@@ -38093,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K45" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L45" t="n">
-        <v>40.55973291537923</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="P45" t="n">
-        <v>522.0635703700256</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_3_18.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_3_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>613129.89955322</v>
+        <v>609037.0285369289</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6750972.622617705</v>
+        <v>6750972.622617709</v>
       </c>
     </row>
     <row r="8">
@@ -658,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D2" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>34.43035292546475</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -724,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>6.338580986754886</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,7 +867,7 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>237.1532516330649</v>
@@ -879,13 +879,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>119.2158337902828</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>195.7532047308966</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E5" t="n">
-        <v>217.9384953604879</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>60.68815313726769</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -949,19 +949,19 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>396.9273063213908</v>
@@ -1056,25 +1056,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1104,25 +1104,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>27.35334490128912</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.4883416251229</v>
+        <v>114.3915389081186</v>
       </c>
     </row>
     <row r="8">
@@ -1135,7 +1135,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C8" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1144,10 +1144,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>88.4051998483089</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1195,10 +1195,10 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
-        <v>82.48769699774165</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1290,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>136.1769805884545</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>192.1508552236621</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="11">
@@ -1372,25 +1372,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D11" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>92.50935913004869</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>47.69985993234642</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="12">
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1581,22 +1581,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>27.35334490128912</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672383</v>
       </c>
     </row>
     <row r="14">
@@ -1609,19 +1609,19 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C14" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>392.4208820523424</v>
+        <v>100.0791888769557</v>
       </c>
       <c r="F14" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1666,16 +1666,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="15">
@@ -1767,25 +1767,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,25 +1815,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>27.35334490128912</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
-        <v>222.4883416251229</v>
+        <v>123.2148172775824</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,13 +1897,13 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U17" t="n">
-        <v>117.4784251967216</v>
+        <v>158.3449400448986</v>
       </c>
       <c r="V17" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>379.9226978561831</v>
@@ -2019,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>77.72590661309994</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>237.1532516330649</v>
@@ -2061,7 +2061,7 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
         <v>276.2789678462144</v>
@@ -2070,7 +2070,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="20">
@@ -2083,7 +2083,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C20" t="n">
-        <v>271.338631283351</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D20" t="n">
         <v>400.41929060787</v>
@@ -2098,10 +2098,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I20" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>254.489886823085</v>
+        <v>251.4066896505621</v>
       </c>
       <c r="V20" t="n">
         <v>346.3391791168841</v>
@@ -2238,22 +2238,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>157.122629639721</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2289,25 +2289,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2374,7 +2374,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.4066896505621</v>
+        <v>165.9184445944652</v>
       </c>
       <c r="V23" t="n">
         <v>346.3391791168841</v>
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>58.87768236127997</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2526,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U25" t="n">
         <v>279.9701659793371</v>
@@ -2544,7 +2544,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>222.4883416251229</v>
+        <v>29.06736062834964</v>
       </c>
     </row>
     <row r="26">
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>360.2718058255109</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C26" t="n">
         <v>406.0233447798626</v>
@@ -2569,13 +2569,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
-        <v>404.6410012660961</v>
+        <v>47.64512042712314</v>
       </c>
       <c r="H26" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I26" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2620,7 +2620,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y26" t="n">
         <v>396.9273063213908</v>
@@ -2718,19 +2718,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>58.98139410584826</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,19 +2760,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
         <v>276.2789678462144</v>
@@ -2781,7 +2781,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="29">
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>237.1532516330649</v>
@@ -3015,10 +3015,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
-        <v>65.42520756919065</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="32">
@@ -3046,7 +3046,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H32" t="n">
-        <v>170.7879507721959</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3082,10 +3082,10 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>117.4784251967216</v>
       </c>
       <c r="U32" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>346.3391791168841</v>
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3240,10 +3240,10 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U34" t="n">
-        <v>153.0251390105127</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V34" t="n">
         <v>271.1468876098733</v>
@@ -3255,7 +3255,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="35">
@@ -3271,10 +3271,10 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D35" t="n">
-        <v>368.1319780410717</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F35" t="n">
         <v>416.8201079258493</v>
@@ -3286,7 +3286,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I35" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>254.489886823085</v>
+        <v>251.4066896505621</v>
       </c>
       <c r="V35" t="n">
         <v>346.3391791168841</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>159.3854280103019</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,25 +3474,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>188.3136338785363</v>
       </c>
       <c r="W37" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="38">
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T38" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>254.489886823085</v>
+        <v>117.4784251967216</v>
       </c>
       <c r="V38" t="n">
         <v>346.3391791168841</v>
@@ -3571,7 +3571,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y38" t="n">
-        <v>173.8596899362583</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="39">
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>86.54918498256373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T40" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U40" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>271.1468876098733</v>
@@ -3729,7 +3729,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>213.5952110672386</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="41">
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>406.0233447798626</v>
@@ -3748,7 +3748,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E41" t="n">
-        <v>275.5120998317608</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F41" t="n">
         <v>416.8201079258493</v>
@@ -3757,7 +3757,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I41" t="n">
         <v>85.48824505609757</v>
@@ -3799,7 +3799,7 @@
         <v>254.489886823085</v>
       </c>
       <c r="V41" t="n">
-        <v>346.3391791168841</v>
+        <v>309.974021089658</v>
       </c>
       <c r="W41" t="n">
         <v>379.9226978561831</v>
@@ -3945,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U43" t="n">
-        <v>273.2760814510827</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
         <v>276.2789678462144</v>
@@ -3966,7 +3966,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="44">
@@ -3982,7 +3982,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
-        <v>400.41929060787</v>
+        <v>43.42340976889702</v>
       </c>
       <c r="E44" t="n">
         <v>410.1968133282722</v>
@@ -3997,7 +3997,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I44" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T44" t="n">
         <v>219.9844192126098</v>
@@ -4036,7 +4036,7 @@
         <v>254.489886823085</v>
       </c>
       <c r="V44" t="n">
-        <v>37.78331767565417</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
         <v>379.9226978561831</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1270.693821706375</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="C2" t="n">
-        <v>860.5692310196448</v>
+        <v>1320.642131534332</v>
       </c>
       <c r="D2" t="n">
-        <v>456.1053011127053</v>
+        <v>1320.642131534332</v>
       </c>
       <c r="E2" t="n">
-        <v>41.76508562960205</v>
+        <v>906.3019160512285</v>
       </c>
       <c r="F2" t="n">
-        <v>41.76508562960205</v>
+        <v>485.2715040049161</v>
       </c>
       <c r="G2" t="n">
-        <v>41.76508562960205</v>
+        <v>76.54321989774826</v>
       </c>
       <c r="H2" t="n">
         <v>41.76508562960205</v>
@@ -4339,13 +4339,13 @@
         <v>812.7934917636817</v>
       </c>
       <c r="M2" t="n">
-        <v>812.7934917636817</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="N2" t="n">
-        <v>1250.250340018485</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="O2" t="n">
-        <v>1250.250340018485</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="P2" t="n">
         <v>1767.09327468481</v>
@@ -4357,25 +4357,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S2" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T2" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U2" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="V2" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="W2" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="X2" t="n">
-        <v>2081.851674422774</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="Y2" t="n">
-        <v>1680.915001370864</v>
+        <v>1730.766722221062</v>
       </c>
     </row>
     <row r="3">
@@ -4415,22 +4415,22 @@
         <v>690.3841994575342</v>
       </c>
       <c r="L3" t="n">
-        <v>1054.568412147452</v>
+        <v>690.3841994575342</v>
       </c>
       <c r="M3" t="n">
-        <v>1054.568412147452</v>
+        <v>1207.22713412386</v>
       </c>
       <c r="N3" t="n">
-        <v>1571.411346813777</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="O3" t="n">
-        <v>2088.254281480102</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="P3" t="n">
-        <v>2088.254281480102</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q3" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R3" t="n">
         <v>2088.254281480102</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>158.1111315252759</v>
+        <v>212.8584580678856</v>
       </c>
       <c r="C4" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D4" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E4" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F4" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G4" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H4" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I4" t="n">
         <v>41.76508562960205</v>
@@ -4515,25 +4515,25 @@
         <v>1485.891263925851</v>
       </c>
       <c r="S4" t="n">
-        <v>1299.499495805762</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="T4" t="n">
-        <v>1059.950756782464</v>
+        <v>1246.342524902554</v>
       </c>
       <c r="U4" t="n">
-        <v>777.1526093285881</v>
+        <v>963.5443774486778</v>
       </c>
       <c r="V4" t="n">
-        <v>503.2668642681101</v>
+        <v>689.6586323881997</v>
       </c>
       <c r="W4" t="n">
-        <v>382.8468301365112</v>
+        <v>410.5889678970741</v>
       </c>
       <c r="X4" t="n">
-        <v>382.8468301365112</v>
+        <v>212.8584580678856</v>
       </c>
       <c r="Y4" t="n">
-        <v>158.1111315252759</v>
+        <v>212.8584580678856</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>261.9049799331252</v>
+        <v>818.4386776939424</v>
       </c>
       <c r="C5" t="n">
-        <v>261.9049799331252</v>
+        <v>818.4386776939424</v>
       </c>
       <c r="D5" t="n">
-        <v>261.9049799331252</v>
+        <v>413.9747477870029</v>
       </c>
       <c r="E5" t="n">
-        <v>41.76508562960205</v>
+        <v>413.9747477870029</v>
       </c>
       <c r="F5" t="n">
-        <v>41.76508562960205</v>
+        <v>352.673583001884</v>
       </c>
       <c r="G5" t="n">
-        <v>41.76508562960205</v>
+        <v>352.673583001884</v>
       </c>
       <c r="H5" t="n">
         <v>41.76508562960205</v>
@@ -4570,25 +4570,25 @@
         <v>41.76508562960205</v>
       </c>
       <c r="K5" t="n">
+        <v>41.76508562960205</v>
+      </c>
+      <c r="L5" t="n">
         <v>558.6080202959273</v>
       </c>
-      <c r="L5" t="n">
-        <v>1014.011766457887</v>
-      </c>
       <c r="M5" t="n">
-        <v>1530.854701124212</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="N5" t="n">
-        <v>1530.854701124212</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="O5" t="n">
-        <v>1530.854701124212</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="P5" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q5" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R5" t="n">
         <v>2088.254281480102</v>
@@ -4597,22 +4597,22 @@
         <v>1952.973206274203</v>
       </c>
       <c r="T5" t="n">
-        <v>1730.766722221062</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="U5" t="n">
-        <v>1473.706230480572</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="V5" t="n">
-        <v>1473.706230480572</v>
+        <v>1603.135651610684</v>
       </c>
       <c r="W5" t="n">
-        <v>1473.706230480572</v>
+        <v>1219.375350745852</v>
       </c>
       <c r="X5" t="n">
-        <v>1073.062832649525</v>
+        <v>1219.375350745852</v>
       </c>
       <c r="Y5" t="n">
-        <v>672.1261595976147</v>
+        <v>818.4386776939424</v>
       </c>
     </row>
     <row r="6">
@@ -4646,22 +4646,22 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J6" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K6" t="n">
-        <v>497.5713418949007</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L6" t="n">
-        <v>497.5713418949007</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="M6" t="n">
-        <v>497.5713418949007</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="N6" t="n">
-        <v>1014.414276561226</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="O6" t="n">
-        <v>1531.257211227551</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="P6" t="n">
         <v>1708.850297433488</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1131.098935930739</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C7" t="n">
-        <v>960.0055634924552</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D7" t="n">
-        <v>800.5109188153651</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E7" t="n">
-        <v>639.6001036836846</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F7" t="n">
-        <v>474.9689777942758</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G7" t="n">
-        <v>307.7185867198193</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H7" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I7" t="n">
         <v>41.76508562960205</v>
@@ -4752,25 +4752,25 @@
         <v>1571.163982250452</v>
       </c>
       <c r="S7" t="n">
-        <v>1571.163982250452</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="T7" t="n">
-        <v>1571.163982250452</v>
+        <v>1145.223475107064</v>
       </c>
       <c r="U7" t="n">
-        <v>1571.163982250452</v>
+        <v>862.4253276531883</v>
       </c>
       <c r="V7" t="n">
-        <v>1571.163982250452</v>
+        <v>862.4253276531883</v>
       </c>
       <c r="W7" t="n">
-        <v>1571.163982250452</v>
+        <v>583.3556631620627</v>
       </c>
       <c r="X7" t="n">
-        <v>1543.534340936018</v>
+        <v>345.0118010217461</v>
       </c>
       <c r="Y7" t="n">
-        <v>1318.798642324783</v>
+        <v>229.4647920236465</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>451.8896763163319</v>
+        <v>552.093679340873</v>
       </c>
       <c r="C8" t="n">
-        <v>41.76508562960205</v>
+        <v>552.093679340873</v>
       </c>
       <c r="D8" t="n">
-        <v>41.76508562960205</v>
+        <v>552.093679340873</v>
       </c>
       <c r="E8" t="n">
-        <v>41.76508562960205</v>
+        <v>552.093679340873</v>
       </c>
       <c r="F8" t="n">
-        <v>41.76508562960205</v>
+        <v>131.0632672945605</v>
       </c>
       <c r="G8" t="n">
         <v>41.76508562960205</v>
@@ -4807,22 +4807,22 @@
         <v>41.76508562960205</v>
       </c>
       <c r="K8" t="n">
+        <v>41.76508562960205</v>
+      </c>
+      <c r="L8" t="n">
+        <v>41.76508562960205</v>
+      </c>
+      <c r="M8" t="n">
         <v>558.6080202959273</v>
       </c>
-      <c r="L8" t="n">
-        <v>1054.568412147452</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1054.568412147452</v>
-      </c>
       <c r="N8" t="n">
-        <v>1571.411346813777</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="O8" t="n">
-        <v>2088.254281480102</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="P8" t="n">
-        <v>2088.254281480102</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="Q8" t="n">
         <v>2088.254281480102</v>
@@ -4843,13 +4843,13 @@
         <v>1346.075159870194</v>
       </c>
       <c r="W8" t="n">
-        <v>1262.754253811869</v>
+        <v>962.3148590053625</v>
       </c>
       <c r="X8" t="n">
-        <v>862.1108559808214</v>
+        <v>962.3148590053625</v>
       </c>
       <c r="Y8" t="n">
-        <v>862.1108559808214</v>
+        <v>962.3148590053625</v>
       </c>
     </row>
     <row r="9">
@@ -4883,19 +4883,19 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J9" t="n">
-        <v>187.8810127971426</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K9" t="n">
-        <v>187.8810127971426</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L9" t="n">
-        <v>704.7239474634679</v>
+        <v>690.384199457534</v>
       </c>
       <c r="M9" t="n">
-        <v>1221.566882129793</v>
+        <v>690.384199457534</v>
       </c>
       <c r="N9" t="n">
-        <v>1221.566882129793</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="O9" t="n">
         <v>1221.566882129793</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>777.1526093285881</v>
+        <v>212.8584580678856</v>
       </c>
       <c r="C10" t="n">
-        <v>777.1526093285881</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D10" t="n">
-        <v>777.1526093285881</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E10" t="n">
-        <v>639.6001036836846</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F10" t="n">
-        <v>474.9689777942758</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G10" t="n">
-        <v>307.7185867198193</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H10" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I10" t="n">
         <v>41.76508562960205</v>
@@ -4986,28 +4986,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R10" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S10" t="n">
-        <v>1299.499495805762</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T10" t="n">
-        <v>1059.950756782464</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U10" t="n">
-        <v>777.1526093285881</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="V10" t="n">
-        <v>777.1526093285881</v>
+        <v>1057.729498166676</v>
       </c>
       <c r="W10" t="n">
-        <v>777.1526093285881</v>
+        <v>863.6377252134819</v>
       </c>
       <c r="X10" t="n">
-        <v>777.1526093285881</v>
+        <v>625.2938630731653</v>
       </c>
       <c r="Y10" t="n">
-        <v>777.1526093285881</v>
+        <v>400.5581644619299</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>954.0130281207041</v>
+        <v>1329.830049169152</v>
       </c>
       <c r="C11" t="n">
-        <v>954.0130281207041</v>
+        <v>919.7054584824222</v>
       </c>
       <c r="D11" t="n">
-        <v>549.5490982137646</v>
+        <v>919.7054584824222</v>
       </c>
       <c r="E11" t="n">
-        <v>135.2088827306613</v>
+        <v>919.7054584824222</v>
       </c>
       <c r="F11" t="n">
-        <v>41.76508562960205</v>
+        <v>498.6750464361097</v>
       </c>
       <c r="G11" t="n">
-        <v>41.76508562960205</v>
+        <v>89.94676232894187</v>
       </c>
       <c r="H11" t="n">
-        <v>41.76508562960205</v>
+        <v>89.94676232894187</v>
       </c>
       <c r="I11" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J11" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K11" t="n">
-        <v>537.7254774811266</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L11" t="n">
-        <v>1054.568412147452</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="M11" t="n">
-        <v>1571.411346813777</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="N11" t="n">
-        <v>2088.254281480102</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="O11" t="n">
-        <v>2088.254281480102</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P11" t="n">
-        <v>2088.254281480102</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q11" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R11" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S11" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T11" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U11" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="V11" t="n">
-        <v>1738.416726816583</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="W11" t="n">
-        <v>1354.656425951752</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="X11" t="n">
-        <v>954.0130281207041</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="Y11" t="n">
-        <v>954.0130281207041</v>
+        <v>1329.830049169152</v>
       </c>
     </row>
     <row r="12">
@@ -5123,25 +5123,25 @@
         <v>234.5779431922353</v>
       </c>
       <c r="K12" t="n">
-        <v>234.5779431922353</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L12" t="n">
-        <v>751.4208778585605</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="M12" t="n">
-        <v>1054.568412147451</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="N12" t="n">
-        <v>1054.568412147451</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="O12" t="n">
-        <v>1571.411346813777</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="P12" t="n">
-        <v>2088.254281480102</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="Q12" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R12" t="n">
         <v>2088.254281480102</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1131.098935930739</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C13" t="n">
-        <v>960.0055634924552</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D13" t="n">
-        <v>800.5109188153651</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E13" t="n">
-        <v>639.6001036836846</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F13" t="n">
-        <v>474.9689777942758</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G13" t="n">
-        <v>307.7185867198193</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H13" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I13" t="n">
         <v>41.76508562960205</v>
@@ -5229,22 +5229,22 @@
         <v>1571.163982250452</v>
       </c>
       <c r="T13" t="n">
-        <v>1571.163982250452</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U13" t="n">
-        <v>1571.163982250452</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V13" t="n">
-        <v>1571.163982250452</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W13" t="n">
-        <v>1571.163982250452</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X13" t="n">
-        <v>1543.534340936018</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="Y13" t="n">
-        <v>1318.798642324783</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1678.033101815613</v>
+        <v>142.8551754043048</v>
       </c>
       <c r="C14" t="n">
-        <v>1267.908511128883</v>
+        <v>142.8551754043048</v>
       </c>
       <c r="D14" t="n">
-        <v>1267.908511128883</v>
+        <v>142.8551754043048</v>
       </c>
       <c r="E14" t="n">
-        <v>871.5237817830823</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F14" t="n">
-        <v>450.4933697367699</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G14" t="n">
         <v>41.76508562960205</v>
@@ -5284,22 +5284,22 @@
         <v>41.76508562960205</v>
       </c>
       <c r="L14" t="n">
-        <v>537.7254774811266</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="M14" t="n">
-        <v>1054.568412147452</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="N14" t="n">
-        <v>1571.411346813777</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="O14" t="n">
-        <v>1571.411346813777</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="P14" t="n">
-        <v>2088.254281480102</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q14" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R14" t="n">
         <v>2088.254281480102</v>
@@ -5314,16 +5314,16 @@
         <v>2088.254281480102</v>
       </c>
       <c r="V14" t="n">
-        <v>2088.254281480102</v>
+        <v>1738.416726816583</v>
       </c>
       <c r="W14" t="n">
-        <v>2088.254281480102</v>
+        <v>1354.656425951752</v>
       </c>
       <c r="X14" t="n">
-        <v>2088.254281480102</v>
+        <v>954.0130281207041</v>
       </c>
       <c r="Y14" t="n">
-        <v>2088.254281480102</v>
+        <v>553.0763550687942</v>
       </c>
     </row>
     <row r="15">
@@ -5357,22 +5357,22 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J15" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K15" t="n">
-        <v>497.5713418949007</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L15" t="n">
-        <v>675.1644281008379</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="M15" t="n">
-        <v>675.1644281008379</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="N15" t="n">
         <v>1192.007362767163</v>
       </c>
       <c r="O15" t="n">
-        <v>1708.850297433488</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="P15" t="n">
         <v>1708.850297433488</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1131.098935930739</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C16" t="n">
-        <v>960.0055634924552</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D16" t="n">
-        <v>800.5109188153651</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E16" t="n">
-        <v>639.6001036836846</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F16" t="n">
-        <v>474.9689777942758</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G16" t="n">
-        <v>307.7185867198193</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H16" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I16" t="n">
         <v>41.76508562960205</v>
@@ -5463,25 +5463,25 @@
         <v>1571.163982250452</v>
       </c>
       <c r="S16" t="n">
-        <v>1571.163982250452</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="T16" t="n">
-        <v>1571.163982250452</v>
+        <v>1145.223475107064</v>
       </c>
       <c r="U16" t="n">
-        <v>1571.163982250452</v>
+        <v>1145.223475107064</v>
       </c>
       <c r="V16" t="n">
-        <v>1571.163982250452</v>
+        <v>871.3377300465861</v>
       </c>
       <c r="W16" t="n">
-        <v>1571.163982250452</v>
+        <v>592.2680655554605</v>
       </c>
       <c r="X16" t="n">
-        <v>1543.534340936018</v>
+        <v>353.9242034151438</v>
       </c>
       <c r="Y16" t="n">
-        <v>1318.798642324783</v>
+        <v>229.4647920236465</v>
       </c>
     </row>
     <row r="17">
@@ -5491,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2462.839627293158</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C17" t="n">
-        <v>2052.715036606428</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D17" t="n">
-        <v>1648.251106699488</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E17" t="n">
-        <v>1233.910891216385</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F17" t="n">
-        <v>812.8804791700727</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G17" t="n">
-        <v>404.1521950629048</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H17" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I17" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J17" t="n">
-        <v>347.4291691583772</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K17" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L17" t="n">
         <v>1598.180070079655</v>
@@ -5545,22 +5545,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T17" t="n">
-        <v>4526.90380932524</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U17" t="n">
-        <v>4408.238733368956</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="V17" t="n">
-        <v>4058.401178705436</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W17" t="n">
-        <v>3674.640877840605</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X17" t="n">
-        <v>3273.997480009557</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y17" t="n">
-        <v>2873.060806957647</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="18">
@@ -5594,25 +5594,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J18" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K18" t="n">
-        <v>93.2436976906228</v>
+        <v>635.6676409272679</v>
       </c>
       <c r="L18" t="n">
-        <v>93.2436976906228</v>
+        <v>1296.755812846556</v>
       </c>
       <c r="M18" t="n">
-        <v>936.2207783851894</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="N18" t="n">
-        <v>1085.931338311245</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O18" t="n">
-        <v>1789.888428857139</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P18" t="n">
-        <v>1789.888428857139</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q18" t="n">
         <v>2139.732893541123</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>171.7547144715318</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C19" t="n">
-        <v>171.7547144715318</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D19" t="n">
-        <v>171.7547144715318</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E19" t="n">
-        <v>171.7547144715318</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F19" t="n">
-        <v>171.7547144715318</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G19" t="n">
-        <v>171.7547144715318</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H19" t="n">
         <v>93.2436976906228</v>
@@ -5700,25 +5700,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="S19" t="n">
-        <v>1436.250826191383</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T19" t="n">
-        <v>1196.702087168085</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U19" t="n">
-        <v>913.9039397142094</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V19" t="n">
-        <v>913.9039397142094</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W19" t="n">
-        <v>634.8342752230838</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X19" t="n">
-        <v>396.4904130827671</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y19" t="n">
-        <v>171.7547144715318</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2102.237727455811</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C20" t="n">
-        <v>1828.158301917073</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D20" t="n">
-        <v>1423.694372010133</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E20" t="n">
-        <v>1009.35415652703</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F20" t="n">
-        <v>588.3237444807176</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G20" t="n">
-        <v>179.5954603735497</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H20" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I20" t="n">
         <v>93.2436976906228</v>
@@ -5779,25 +5779,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S20" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T20" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U20" t="n">
-        <v>4047.636833531609</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V20" t="n">
-        <v>3697.79927886809</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W20" t="n">
-        <v>3314.038978003258</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X20" t="n">
-        <v>2913.395580172211</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y20" t="n">
-        <v>2512.458907120301</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3294.526530567174</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C21" t="n">
-        <v>3160.531459316119</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D21" t="n">
-        <v>3043.634301535512</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E21" t="n">
-        <v>2923.14148552784</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F21" t="n">
-        <v>2814.181605710345</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G21" t="n">
-        <v>2707.191493024683</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H21" t="n">
-        <v>2636.4442800604</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I21" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J21" t="n">
-        <v>2808.508546243273</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K21" t="n">
-        <v>3264.314802508572</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L21" t="n">
-        <v>3264.314802508572</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M21" t="n">
-        <v>3264.314802508572</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="N21" t="n">
-        <v>3264.314802508572</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O21" t="n">
-        <v>3721.075007995997</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P21" t="n">
-        <v>4282.780900484527</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q21" t="n">
-        <v>4632.62536516851</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R21" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S21" t="n">
-        <v>4554.194874645448</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T21" t="n">
-        <v>4394.853010832457</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U21" t="n">
-        <v>4197.502199970675</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V21" t="n">
-        <v>3983.790672963709</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W21" t="n">
-        <v>3770.557504700037</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X21" t="n">
-        <v>3594.23152283893</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y21" t="n">
-        <v>3434.82956320276</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="22">
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>744.7457566949778</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C22" t="n">
-        <v>586.0360297861687</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D22" t="n">
-        <v>586.0360297861687</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E22" t="n">
-        <v>425.1252146544881</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F22" t="n">
-        <v>260.4940887650794</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G22" t="n">
         <v>93.2436976906228</v>
@@ -5937,25 +5937,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="S22" t="n">
-        <v>1436.250826191383</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T22" t="n">
-        <v>1436.250826191383</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U22" t="n">
-        <v>1436.250826191383</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V22" t="n">
-        <v>1436.250826191383</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W22" t="n">
-        <v>1157.181161700257</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X22" t="n">
-        <v>1157.181161700257</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y22" t="n">
-        <v>932.4454630890222</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2462.839627293158</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C23" t="n">
-        <v>2052.715036606428</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D23" t="n">
-        <v>1648.251106699488</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E23" t="n">
-        <v>1233.910891216385</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F23" t="n">
-        <v>812.8804791700727</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G23" t="n">
-        <v>404.1521950629048</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H23" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I23" t="n">
         <v>93.2436976906228</v>
@@ -6022,19 +6022,19 @@
         <v>4662.18488453114</v>
       </c>
       <c r="U23" t="n">
-        <v>4408.238733368956</v>
+        <v>4494.590496051882</v>
       </c>
       <c r="V23" t="n">
-        <v>4058.401178705436</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W23" t="n">
-        <v>3674.640877840605</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X23" t="n">
-        <v>3273.997480009557</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y23" t="n">
-        <v>2873.060806957647</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3294.526530567174</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C24" t="n">
-        <v>3160.531459316119</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D24" t="n">
-        <v>3043.634301535512</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E24" t="n">
-        <v>2923.14148552784</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F24" t="n">
-        <v>2814.181605710345</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G24" t="n">
-        <v>2707.191493024683</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H24" t="n">
-        <v>2636.4442800604</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I24" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J24" t="n">
-        <v>2808.508546243273</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K24" t="n">
-        <v>3264.314802508572</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L24" t="n">
-        <v>3750.634527358626</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="M24" t="n">
-        <v>3750.634527358626</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="N24" t="n">
-        <v>3750.634527358626</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="O24" t="n">
-        <v>3750.634527358626</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P24" t="n">
-        <v>4312.340419847156</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q24" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R24" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S24" t="n">
-        <v>4554.194874645448</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T24" t="n">
-        <v>4394.853010832457</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U24" t="n">
-        <v>4197.502199970675</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V24" t="n">
-        <v>3983.790672963709</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W24" t="n">
-        <v>3770.557504700037</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X24" t="n">
-        <v>3594.23152283893</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y24" t="n">
-        <v>3434.82956320276</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="25">
@@ -6123,7 +6123,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>264.3370701289063</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C25" t="n">
         <v>93.2436976906228</v>
@@ -6174,25 +6174,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="S25" t="n">
-        <v>1622.642594311473</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T25" t="n">
-        <v>1622.642594311473</v>
+        <v>1196.702087168085</v>
       </c>
       <c r="U25" t="n">
-        <v>1339.844446857597</v>
+        <v>913.9039397142094</v>
       </c>
       <c r="V25" t="n">
-        <v>1065.958701797119</v>
+        <v>640.0181946537314</v>
       </c>
       <c r="W25" t="n">
-        <v>786.8890373059935</v>
+        <v>360.9485301626057</v>
       </c>
       <c r="X25" t="n">
-        <v>548.5451751656769</v>
+        <v>122.6046680222891</v>
       </c>
       <c r="Y25" t="n">
-        <v>323.8094765544416</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2549.191389976085</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C26" t="n">
-        <v>2139.066799289355</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D26" t="n">
-        <v>1734.602869382415</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E26" t="n">
-        <v>1320.262653899312</v>
+        <v>873.3089913790386</v>
       </c>
       <c r="F26" t="n">
-        <v>899.2322418529996</v>
+        <v>452.2785793327262</v>
       </c>
       <c r="G26" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H26" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I26" t="n">
         <v>93.2436976906228</v>
@@ -6268,10 +6268,10 @@
         <v>3314.038978003258</v>
       </c>
       <c r="X26" t="n">
-        <v>3314.038978003258</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y26" t="n">
-        <v>2913.102304951348</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="27">
@@ -6305,25 +6305,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J27" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K27" t="n">
-        <v>549.0499539559215</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L27" t="n">
-        <v>1210.13812587521</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.182536368609</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="N27" t="n">
-        <v>1228.182536368609</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="O27" t="n">
-        <v>1228.182536368609</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P27" t="n">
-        <v>1789.888428857139</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q27" t="n">
         <v>2139.732893541123</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>795.220650744195</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C28" t="n">
-        <v>795.220650744195</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D28" t="n">
-        <v>735.6434849807119</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E28" t="n">
-        <v>574.7326698490315</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F28" t="n">
-        <v>410.1015439596227</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G28" t="n">
-        <v>242.8511528851661</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H28" t="n">
         <v>93.2436976906228</v>
@@ -6408,28 +6408,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R28" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S28" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T28" t="n">
-        <v>1537.369875986873</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U28" t="n">
-        <v>1537.369875986873</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V28" t="n">
-        <v>1537.369875986873</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W28" t="n">
-        <v>1258.300211495747</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X28" t="n">
-        <v>1019.95634935543</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y28" t="n">
-        <v>795.220650744195</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="29">
@@ -6542,28 +6542,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J30" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K30" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L30" t="n">
-        <v>93.2436976906228</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M30" t="n">
-        <v>562.1177108836107</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N30" t="n">
-        <v>1435.775802995229</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O30" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P30" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q30" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R30" t="n">
         <v>2139.732893541123</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3249.132033805963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C31" t="n">
-        <v>3249.132033805963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D31" t="n">
-        <v>3249.132033805963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E31" t="n">
-        <v>3249.132033805963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F31" t="n">
-        <v>3249.132033805963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G31" t="n">
-        <v>3249.132033805963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H31" t="n">
-        <v>3249.132033805963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I31" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J31" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K31" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L31" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M31" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N31" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O31" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P31" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q31" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R31" t="n">
-        <v>4576.912166206539</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S31" t="n">
-        <v>4390.520398086449</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T31" t="n">
-        <v>4150.971659063151</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U31" t="n">
-        <v>3868.173511609275</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V31" t="n">
-        <v>3594.287766548796</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W31" t="n">
-        <v>3315.218102057671</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X31" t="n">
-        <v>3249.132033805963</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y31" t="n">
-        <v>3249.132033805963</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2324.444211508952</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C32" t="n">
-        <v>1914.319620822223</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D32" t="n">
-        <v>1509.855690915283</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E32" t="n">
-        <v>1095.51547543218</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F32" t="n">
-        <v>674.4850633858673</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G32" t="n">
-        <v>265.7567792786995</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H32" t="n">
         <v>93.2436976906228</v>
@@ -6730,22 +6730,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T32" t="n">
-        <v>4526.90380932524</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="U32" t="n">
-        <v>4269.84331758475</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V32" t="n">
-        <v>3920.005762921231</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W32" t="n">
-        <v>3536.245462056399</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X32" t="n">
-        <v>3135.602064225352</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y32" t="n">
-        <v>2734.665391173442</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="33">
@@ -6782,25 +6782,25 @@
         <v>286.056555253256</v>
       </c>
       <c r="K33" t="n">
-        <v>286.056555253256</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L33" t="n">
-        <v>947.1447271725442</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.182536368609</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N33" t="n">
-        <v>1228.182536368609</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O33" t="n">
-        <v>1228.182536368609</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P33" t="n">
-        <v>1789.888428857139</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q33" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R33" t="n">
         <v>2139.732893541123</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3303.879360348573</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C34" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D34" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E34" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F34" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G34" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H34" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I34" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J34" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K34" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L34" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M34" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N34" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O34" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P34" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q34" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R34" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S34" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T34" t="n">
-        <v>4662.18488453114</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U34" t="n">
-        <v>4507.614037045773</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V34" t="n">
-        <v>4233.728291985295</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W34" t="n">
-        <v>3954.658627494169</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X34" t="n">
-        <v>3716.314765353853</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y34" t="n">
-        <v>3491.579066742617</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2102.237727455811</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C35" t="n">
-        <v>1692.113136769081</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D35" t="n">
-        <v>1320.262653899312</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E35" t="n">
-        <v>1320.262653899312</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F35" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G35" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H35" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I35" t="n">
         <v>93.2436976906228</v>
@@ -6964,25 +6964,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S35" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T35" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U35" t="n">
-        <v>4047.636833531609</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V35" t="n">
-        <v>3697.79927886809</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W35" t="n">
-        <v>3314.038978003258</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X35" t="n">
-        <v>2913.395580172211</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y35" t="n">
-        <v>2512.458907120301</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="36">
@@ -7022,16 +7022,16 @@
         <v>549.0499539559215</v>
       </c>
       <c r="L36" t="n">
-        <v>946.9113481625727</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="M36" t="n">
-        <v>1789.888428857139</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="N36" t="n">
-        <v>1789.888428857139</v>
+        <v>1422.708046067539</v>
       </c>
       <c r="O36" t="n">
-        <v>1789.888428857139</v>
+        <v>1422.708046067539</v>
       </c>
       <c r="P36" t="n">
         <v>1789.888428857139</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1182.57754799176</v>
+        <v>264.3370701289063</v>
       </c>
       <c r="C37" t="n">
-        <v>1011.484175553476</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D37" t="n">
-        <v>851.989530876386</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E37" t="n">
-        <v>691.0787157447054</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F37" t="n">
-        <v>526.4475898552967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G37" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H37" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I37" t="n">
         <v>93.2436976906228</v>
@@ -7122,25 +7122,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="S37" t="n">
-        <v>1622.642594311473</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T37" t="n">
-        <v>1622.642594311473</v>
+        <v>1196.702087168085</v>
       </c>
       <c r="U37" t="n">
-        <v>1622.642594311473</v>
+        <v>1196.702087168085</v>
       </c>
       <c r="V37" t="n">
-        <v>1622.642594311473</v>
+        <v>1006.486295371584</v>
       </c>
       <c r="W37" t="n">
-        <v>1343.572929820347</v>
+        <v>727.4166308804582</v>
       </c>
       <c r="X37" t="n">
-        <v>1343.572929820347</v>
+        <v>489.0727687401416</v>
       </c>
       <c r="Y37" t="n">
-        <v>1343.572929820347</v>
+        <v>264.3370701289063</v>
       </c>
     </row>
     <row r="38">
@@ -7201,22 +7201,22 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S38" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T38" t="n">
-        <v>4439.978400477999</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="U38" t="n">
-        <v>4182.917908737509</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V38" t="n">
-        <v>3833.080354073989</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W38" t="n">
-        <v>3449.320053209158</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X38" t="n">
-        <v>3048.67665537811</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y38" t="n">
         <v>2873.060806957647</v>
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3294.526530567174</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C39" t="n">
-        <v>3160.531459316119</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D39" t="n">
-        <v>3043.634301535512</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E39" t="n">
-        <v>2923.14148552784</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F39" t="n">
-        <v>2814.181605710345</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G39" t="n">
-        <v>2707.191493024683</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H39" t="n">
-        <v>2636.4442800604</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I39" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J39" t="n">
-        <v>2808.508546243273</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K39" t="n">
-        <v>3264.314802508572</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L39" t="n">
-        <v>3264.314802508572</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M39" t="n">
-        <v>3264.314802508572</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="N39" t="n">
-        <v>3264.314802508572</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O39" t="n">
-        <v>3721.075007995997</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P39" t="n">
-        <v>4282.780900484527</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q39" t="n">
-        <v>4632.62536516851</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R39" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S39" t="n">
-        <v>4554.194874645448</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T39" t="n">
-        <v>4394.853010832457</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U39" t="n">
-        <v>4197.502199970675</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V39" t="n">
-        <v>3983.790672963709</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W39" t="n">
-        <v>3770.557504700037</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X39" t="n">
-        <v>3594.23152283893</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y39" t="n">
-        <v>3434.82956320276</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="40">
@@ -7359,25 +7359,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="S40" t="n">
-        <v>1622.642594311473</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T40" t="n">
-        <v>1383.093855288175</v>
+        <v>1196.702087168085</v>
       </c>
       <c r="U40" t="n">
-        <v>1100.295707834299</v>
+        <v>1196.702087168085</v>
       </c>
       <c r="V40" t="n">
-        <v>826.4099627738212</v>
+        <v>922.8163421076072</v>
       </c>
       <c r="W40" t="n">
-        <v>547.3402982826956</v>
+        <v>643.7466776164815</v>
       </c>
       <c r="X40" t="n">
-        <v>308.996436142379</v>
+        <v>405.4028154761649</v>
       </c>
       <c r="Y40" t="n">
-        <v>93.2436976906228</v>
+        <v>180.6671168649296</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2102.237727455811</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C41" t="n">
-        <v>1692.113136769081</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D41" t="n">
-        <v>1287.649206862142</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E41" t="n">
-        <v>1009.35415652703</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F41" t="n">
-        <v>588.3237444807176</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G41" t="n">
-        <v>179.5954603735497</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H41" t="n">
         <v>179.5954603735497</v>
@@ -7411,10 +7411,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J41" t="n">
-        <v>347.4291691583772</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K41" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L41" t="n">
         <v>1598.180070079655</v>
@@ -7447,16 +7447,16 @@
         <v>4047.636833531609</v>
       </c>
       <c r="V41" t="n">
-        <v>3697.79927886809</v>
+        <v>3734.531761723874</v>
       </c>
       <c r="W41" t="n">
-        <v>3314.038978003258</v>
+        <v>3350.771460859042</v>
       </c>
       <c r="X41" t="n">
-        <v>2913.395580172211</v>
+        <v>2950.128063027995</v>
       </c>
       <c r="Y41" t="n">
-        <v>2512.458907120301</v>
+        <v>2549.191389976085</v>
       </c>
     </row>
     <row r="42">
@@ -7490,28 +7490,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J42" t="n">
-        <v>286.056555253256</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K42" t="n">
-        <v>741.8628115185547</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L42" t="n">
-        <v>741.8628115185547</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="M42" t="n">
-        <v>741.8628115185547</v>
+        <v>2053.115206569777</v>
       </c>
       <c r="N42" t="n">
-        <v>741.8628115185547</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O42" t="n">
-        <v>1198.623017005979</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P42" t="n">
-        <v>1760.328909494509</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q42" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R42" t="n">
         <v>2139.732893541123</v>
@@ -7593,25 +7593,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R43" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S43" t="n">
-        <v>1350.978107866783</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T43" t="n">
-        <v>1111.429368843485</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U43" t="n">
-        <v>835.3929229333004</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V43" t="n">
-        <v>835.3929229333004</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W43" t="n">
-        <v>556.3232584421747</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X43" t="n">
-        <v>317.9793963018581</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y43" t="n">
         <v>93.2436976906228</v>
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2549.191389976085</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C44" t="n">
-        <v>2139.066799289355</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D44" t="n">
-        <v>1734.602869382415</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E44" t="n">
-        <v>1320.262653899312</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F44" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G44" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H44" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I44" t="n">
         <v>93.2436976906228</v>
@@ -7675,25 +7675,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S44" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T44" t="n">
-        <v>4439.978400477999</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U44" t="n">
-        <v>4182.917908737509</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V44" t="n">
-        <v>4144.752941388363</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W44" t="n">
-        <v>3760.992640523532</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X44" t="n">
-        <v>3360.349242692484</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y44" t="n">
-        <v>2959.412569640574</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="45">
@@ -7733,22 +7733,22 @@
         <v>741.8628115185547</v>
       </c>
       <c r="L45" t="n">
-        <v>741.8628115185547</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M45" t="n">
-        <v>741.8628115185547</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N45" t="n">
-        <v>741.8628115185547</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O45" t="n">
-        <v>1198.623017005979</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P45" t="n">
-        <v>1760.328909494509</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q45" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R45" t="n">
         <v>2139.732893541123</v>
@@ -7987,7 +7987,7 @@
         <v>95.48539806284482</v>
       </c>
       <c r="M2" t="n">
-        <v>93.29022445704545</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N2" t="n">
         <v>534.7878950544006</v>
@@ -7996,7 +7996,7 @@
         <v>93.18977562578313</v>
       </c>
       <c r="P2" t="n">
-        <v>615.7129336509097</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q2" t="n">
         <v>414.4388617681339</v>
@@ -8063,25 +8063,25 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L3" t="n">
-        <v>423.977364911776</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M3" t="n">
-        <v>57.56428373841742</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N3" t="n">
-        <v>575.2569637637755</v>
+        <v>559.8834573428704</v>
       </c>
       <c r="O3" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P3" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q3" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R3" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8218,16 +8218,16 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K5" t="n">
-        <v>611.1999600432426</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L5" t="n">
-        <v>555.4891820648243</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M5" t="n">
         <v>615.3537948270711</v>
       </c>
       <c r="N5" t="n">
-        <v>92.91229075661933</v>
+        <v>593.882383535937</v>
       </c>
       <c r="O5" t="n">
         <v>93.18977562578313</v>
@@ -8239,7 +8239,7 @@
         <v>90.03380439915205</v>
       </c>
       <c r="R5" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,25 +8294,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J6" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K6" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L6" t="n">
-        <v>56.11452381084905</v>
+        <v>562.8045877599694</v>
       </c>
       <c r="M6" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N6" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O6" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P6" t="n">
-        <v>233.6465907663767</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q6" t="n">
         <v>410.0708656603775</v>
@@ -8455,13 +8455,13 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K8" t="n">
-        <v>611.1999600432426</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L8" t="n">
-        <v>596.4554908421626</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M8" t="n">
-        <v>93.29022445704545</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N8" t="n">
         <v>614.9758611266449</v>
@@ -8470,10 +8470,10 @@
         <v>615.2533459958087</v>
       </c>
       <c r="P8" t="n">
-        <v>93.64936328088416</v>
+        <v>270.21439869122</v>
       </c>
       <c r="Q8" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R8" t="n">
         <v>87.31214281472352</v>
@@ -8531,22 +8531,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J9" t="n">
-        <v>198.9610844237783</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K9" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L9" t="n">
-        <v>578.1780941808746</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M9" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N9" t="n">
-        <v>53.19339339374999</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O9" t="n">
-        <v>57.751479</v>
+        <v>72.23607294538775</v>
       </c>
       <c r="P9" t="n">
         <v>576.3232053728293</v>
@@ -8689,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K11" t="n">
-        <v>590.1064824525349</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L11" t="n">
         <v>617.5489684328704</v>
       </c>
       <c r="M11" t="n">
-        <v>615.3537948270711</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N11" t="n">
-        <v>614.9758611266449</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O11" t="n">
-        <v>93.18977562578313</v>
+        <v>494.099071146226</v>
       </c>
       <c r="P11" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q11" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R11" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8771,28 +8771,28 @@
         <v>246.129700984478</v>
       </c>
       <c r="K12" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L12" t="n">
-        <v>578.1780941808746</v>
+        <v>562.8045877599694</v>
       </c>
       <c r="M12" t="n">
-        <v>363.7739143332568</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N12" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O12" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P12" t="n">
         <v>576.3232053728293</v>
       </c>
       <c r="Q12" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R12" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8932,25 +8932,25 @@
         <v>89.13638967321712</v>
       </c>
       <c r="L14" t="n">
-        <v>596.4554908421626</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M14" t="n">
         <v>615.3537948270711</v>
       </c>
       <c r="N14" t="n">
-        <v>614.9758611266449</v>
+        <v>228.5110173896169</v>
       </c>
       <c r="O14" t="n">
-        <v>93.18977562578313</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P14" t="n">
-        <v>615.7129336509097</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q14" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R14" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,25 +9005,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K15" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L15" t="n">
-        <v>235.5014795744219</v>
+        <v>562.8045877599694</v>
       </c>
       <c r="M15" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N15" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O15" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P15" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q15" t="n">
         <v>410.0708656603775</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>330.0765928158882</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K17" t="n">
         <v>632.7318453389136</v>
@@ -9187,7 +9187,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R17" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,28 +9242,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K18" t="n">
-        <v>55.82578278461539</v>
+        <v>408.9682935664456</v>
       </c>
       <c r="L18" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M18" t="n">
         <v>909.0562844399999</v>
       </c>
       <c r="N18" t="n">
-        <v>204.4161811978466</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O18" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P18" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q18" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R18" t="n">
         <v>59.00019910540541</v>
@@ -9424,7 +9424,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R20" t="n">
-        <v>128.2784515920618</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9485,25 +9485,25 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L21" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M21" t="n">
-        <v>57.56428373841742</v>
+        <v>801.788435357892</v>
       </c>
       <c r="N21" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O21" t="n">
-        <v>519.125423936793</v>
+        <v>57.751479</v>
       </c>
       <c r="P21" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q21" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R21" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9716,13 +9716,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K24" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L24" t="n">
-        <v>547.3465691139345</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M24" t="n">
         <v>57.56428373841742</v>
@@ -9731,13 +9731,13 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O24" t="n">
-        <v>57.751479</v>
+        <v>429.3564034215989</v>
       </c>
       <c r="P24" t="n">
         <v>621.6393243851574</v>
       </c>
       <c r="Q24" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R24" t="n">
         <v>59.00019910540541</v>
@@ -9953,7 +9953,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
         <v>516.2361426485535</v>
@@ -9962,7 +9962,7 @@
         <v>723.8803540323523</v>
       </c>
       <c r="M27" t="n">
-        <v>75.79096100447751</v>
+        <v>234.4087459755385</v>
       </c>
       <c r="N27" t="n">
         <v>53.19339339374999</v>
@@ -9974,7 +9974,7 @@
         <v>621.6393243851574</v>
       </c>
       <c r="Q27" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R27" t="n">
         <v>59.00019910540541</v>
@@ -10190,31 +10190,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L30" t="n">
-        <v>56.11452381084905</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M30" t="n">
-        <v>531.1743980747688</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N30" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O30" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P30" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q30" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R30" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10369,10 +10369,10 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q32" t="n">
-        <v>414.4388617681334</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R32" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10430,13 +10430,13 @@
         <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L33" t="n">
-        <v>723.8803540323523</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M33" t="n">
-        <v>341.4408586839378</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N33" t="n">
         <v>53.19339339374999</v>
@@ -10451,7 +10451,7 @@
         <v>410.0708656603775</v>
       </c>
       <c r="R33" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10670,19 +10670,19 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L36" t="n">
-        <v>457.9947199791836</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M36" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N36" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O36" t="n">
         <v>57.751479</v>
       </c>
       <c r="P36" t="n">
-        <v>54.25963500280375</v>
+        <v>425.1489105478544</v>
       </c>
       <c r="Q36" t="n">
         <v>410.0708656603775</v>
@@ -10907,25 +10907,25 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L39" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M39" t="n">
-        <v>57.56428373841742</v>
+        <v>801.788435357892</v>
       </c>
       <c r="N39" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O39" t="n">
-        <v>519.125423936793</v>
+        <v>57.751479</v>
       </c>
       <c r="P39" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q39" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R39" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>330.0765928158882</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K41" t="n">
         <v>632.7318453389136</v>
@@ -11083,7 +11083,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R41" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,31 +11138,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K42" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L42" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M42" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N42" t="n">
-        <v>53.19339339374999</v>
+        <v>140.68600649612</v>
       </c>
       <c r="O42" t="n">
-        <v>519.1254239367926</v>
+        <v>57.751479</v>
       </c>
       <c r="P42" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q42" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R42" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11381,7 +11381,7 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
-        <v>56.11452381084905</v>
+        <v>547.3465691139345</v>
       </c>
       <c r="M45" t="n">
         <v>57.56428373841742</v>
@@ -11390,7 +11390,7 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O45" t="n">
-        <v>519.1254239367926</v>
+        <v>57.751479</v>
       </c>
       <c r="P45" t="n">
         <v>621.6393243851574</v>
@@ -11399,7 +11399,7 @@
         <v>410.0708656603775</v>
       </c>
       <c r="R45" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22546,25 +22546,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>307.7994123985592</v>
+        <v>273.3690594730945</v>
       </c>
       <c r="I2" t="n">
         <v>85.48824505609757</v>
@@ -22597,10 +22597,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>254.489886823085</v>
@@ -22612,10 +22612,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
-        <v>390.2983828659821</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="3">
@@ -22707,7 +22707,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>157.8996982303191</v>
@@ -22725,7 +22725,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22755,7 +22755,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -22767,13 +22767,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>157.0631340559315</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>235.9604235189134</v>
+        <v>40.2072187880168</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="5">
@@ -22783,25 +22783,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C5" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D5" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>192.2583179677843</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F5" t="n">
-        <v>416.8201079258493</v>
+        <v>356.1319547885816</v>
       </c>
       <c r="G5" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H5" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>85.48824505609757</v>
@@ -22837,19 +22837,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -22944,25 +22944,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22992,25 +22992,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>208.6070786176243</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>108.0968027170043</v>
       </c>
     </row>
     <row r="8">
@@ -23023,7 +23023,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D8" t="n">
         <v>400.41929060787</v>
@@ -23032,10 +23032,10 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F8" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>404.6410012660961</v>
+        <v>316.2358014177872</v>
       </c>
       <c r="H8" t="n">
         <v>307.7994123985592</v>
@@ -23083,10 +23083,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>297.4350008584415</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
         <v>396.9273063213908</v>
@@ -23178,28 +23178,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
-        <v>23.12472639190918</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23226,28 +23226,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>276.2789678462144</v>
+        <v>84.12811262255221</v>
       </c>
       <c r="X10" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -23260,25 +23260,25 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C11" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F11" t="n">
-        <v>324.3107487958006</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I11" t="n">
-        <v>85.48824505609757</v>
+        <v>37.78838512375115</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y11" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,22 +23469,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T13" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>208.6070786176243</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>8.89313055788466</v>
       </c>
     </row>
     <row r="14">
@@ -23497,19 +23497,19 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D14" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E14" t="n">
-        <v>17.77593127592979</v>
+        <v>310.1176244513166</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H14" t="n">
         <v>307.7994123985592</v>
@@ -23554,16 +23554,16 @@
         <v>254.489886823085</v>
       </c>
       <c r="V14" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,25 +23703,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S16" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V16" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>208.6070786176243</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>99.27352434754053</v>
       </c>
     </row>
     <row r="17">
@@ -23752,7 +23752,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23785,13 +23785,13 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>137.0114616263634</v>
+        <v>96.14494677818635</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23907,7 +23907,7 @@
         <v>165.577887163712</v>
       </c>
       <c r="H19" t="n">
-        <v>70.38547402949797</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I19" t="n">
         <v>115.1825854367171</v>
@@ -23940,7 +23940,7 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23949,7 +23949,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="20">
@@ -23971,7 +23971,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>134.6847134965116</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -23986,10 +23986,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,13 +24019,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>3.083197172522915</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24126,22 +24126,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
-        <v>12.25980907417966</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H22" t="n">
         <v>148.1113806425979</v>
@@ -24177,25 +24177,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T22" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="23">
@@ -24226,7 +24226,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24262,7 +24262,7 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U23" t="n">
-        <v>3.083197172522915</v>
+        <v>88.57144222861982</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24363,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>126.945026968824</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
         <v>157.8996982303191</v>
@@ -24414,10 +24414,10 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S25" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>193.4209809967733</v>
       </c>
     </row>
     <row r="26">
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>45.84716204233371</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24457,13 +24457,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>356.995880838973</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24508,7 +24508,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24606,19 +24606,19 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>98.91830412447081</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I28" t="n">
         <v>115.1825854367171</v>
@@ -24648,19 +24648,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S28" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T28" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="29">
@@ -24858,7 +24858,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5352159497228</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>222.4883416251229</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="32">
@@ -24934,7 +24934,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>137.0114616263633</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>85.48824505609757</v>
@@ -24970,10 +24970,10 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>219.9844192126098</v>
+        <v>102.5059940158882</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -25074,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
         <v>157.8996982303191</v>
@@ -25128,10 +25128,10 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T34" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>126.9450269688244</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="35">
@@ -25159,10 +25159,10 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>32.28731256679833</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -25174,7 +25174,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,13 +25204,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>3.083197172522915</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>26.43728131980203</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,25 +25362,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S37" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V37" t="n">
-        <v>271.1468876098733</v>
+        <v>82.83325373133695</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25441,13 +25441,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>137.0114616263634</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25459,7 +25459,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>223.0676163851325</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>185.8227093301039</v>
+        <v>99.27352434754022</v>
       </c>
       <c r="C40" t="n">
         <v>169.3824387139007</v>
@@ -25599,13 +25599,13 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S40" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>8.893130557884348</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25636,7 +25636,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>134.6847134965114</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25645,7 +25645,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25687,7 +25687,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>36.36515802722607</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25833,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>6.694084528254336</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="44">
@@ -25870,7 +25870,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>356.995880838973</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25885,7 +25885,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -25924,7 +25924,7 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>308.5558614412299</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>523644.0244195702</v>
+        <v>523644.0244195703</v>
       </c>
     </row>
     <row r="3">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>523644.0244195703</v>
+        <v>523644.0244195702</v>
       </c>
     </row>
     <row r="5">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>797268.2730120016</v>
+        <v>797268.2730120018</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>797268.2730120015</v>
+        <v>797268.2730120018</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>797268.2730120019</v>
+        <v>797268.2730120016</v>
       </c>
     </row>
     <row r="10">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>797268.2730120018</v>
+        <v>797268.2730120016</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>797268.2730120018</v>
+        <v>797268.2730120016</v>
       </c>
     </row>
   </sheetData>
@@ -26334,28 +26334,28 @@
         <v>260683.8007815845</v>
       </c>
       <c r="I2" t="n">
-        <v>260683.8007815844</v>
+        <v>260683.8007815845</v>
       </c>
       <c r="J2" t="n">
         <v>260683.8007815844</v>
       </c>
       <c r="K2" t="n">
-        <v>260683.8007815844</v>
+        <v>260683.8007815845</v>
       </c>
       <c r="L2" t="n">
         <v>260683.8007815845</v>
       </c>
       <c r="M2" t="n">
+        <v>260683.8007815845</v>
+      </c>
+      <c r="N2" t="n">
+        <v>260683.8007815845</v>
+      </c>
+      <c r="O2" t="n">
         <v>260683.8007815844</v>
       </c>
-      <c r="N2" t="n">
-        <v>260683.8007815846</v>
-      </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>260683.8007815845</v>
-      </c>
-      <c r="P2" t="n">
-        <v>260683.8007815846</v>
       </c>
     </row>
     <row r="3">
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>29404.49246814042</v>
+        <v>29404.49246814041</v>
       </c>
       <c r="C4" t="n">
         <v>29404.49246814042</v>
@@ -26426,19 +26426,19 @@
         <v>29404.49246814042</v>
       </c>
       <c r="E4" t="n">
-        <v>29404.49246814042</v>
+        <v>29404.49246814041</v>
       </c>
       <c r="F4" t="n">
         <v>29404.49246814042</v>
       </c>
       <c r="G4" t="n">
-        <v>44919.86535090265</v>
+        <v>44919.86535090264</v>
       </c>
       <c r="H4" t="n">
-        <v>44919.86535090265</v>
+        <v>44919.86535090264</v>
       </c>
       <c r="I4" t="n">
-        <v>44919.86535090263</v>
+        <v>44919.86535090264</v>
       </c>
       <c r="J4" t="n">
         <v>44919.86535090264</v>
@@ -26453,13 +26453,13 @@
         <v>44919.86535090264</v>
       </c>
       <c r="N4" t="n">
-        <v>44919.86535090265</v>
+        <v>44919.86535090264</v>
       </c>
       <c r="O4" t="n">
-        <v>44919.86535090265</v>
+        <v>44919.86535090264</v>
       </c>
       <c r="P4" t="n">
-        <v>44919.86535090265</v>
+        <v>44919.86535090263</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-98495.95467225731</v>
+        <v>-99173.48353165135</v>
       </c>
       <c r="C6" t="n">
-        <v>76459.55522085671</v>
+        <v>75782.02636146269</v>
       </c>
       <c r="D6" t="n">
-        <v>76459.55522085671</v>
+        <v>75782.02636146269</v>
       </c>
       <c r="E6" t="n">
-        <v>110087.1552208567</v>
+        <v>109409.6263614627</v>
       </c>
       <c r="F6" t="n">
-        <v>110087.1552208568</v>
+        <v>109409.6263614627</v>
       </c>
       <c r="G6" t="n">
-        <v>-31470.21714850247</v>
+        <v>-31650.79774115163</v>
       </c>
       <c r="H6" t="n">
-        <v>144898.7251858086</v>
+        <v>144718.1445931595</v>
       </c>
       <c r="I6" t="n">
-        <v>144898.7251858085</v>
+        <v>144718.1445931595</v>
       </c>
       <c r="J6" t="n">
-        <v>8303.924379913471</v>
+        <v>8123.343787264371</v>
       </c>
       <c r="K6" t="n">
-        <v>144898.7251858085</v>
+        <v>144718.1445931595</v>
       </c>
       <c r="L6" t="n">
-        <v>144898.7251858085</v>
+        <v>144718.1445931594</v>
       </c>
       <c r="M6" t="n">
-        <v>144898.7251858085</v>
+        <v>144718.1445931595</v>
       </c>
       <c r="N6" t="n">
-        <v>144898.7251858086</v>
+        <v>144718.1445931594</v>
       </c>
       <c r="O6" t="n">
-        <v>-9956.018202900217</v>
+        <v>-10136.59879554946</v>
       </c>
       <c r="P6" t="n">
-        <v>144898.7251858086</v>
+        <v>144718.1445931594</v>
       </c>
     </row>
   </sheetData>
@@ -34707,7 +34707,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N2" t="n">
         <v>441.8756042977812</v>
@@ -34716,7 +34716,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>324.4050573689818</v>
@@ -34783,25 +34783,25 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L3" t="n">
-        <v>367.862841100927</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N3" t="n">
-        <v>522.0635703700256</v>
+        <v>506.6900639491205</v>
       </c>
       <c r="O3" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34938,16 +34938,16 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
         <v>522.0635703700256</v>
-      </c>
-      <c r="L5" t="n">
-        <v>460.0037840019794</v>
       </c>
       <c r="M5" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>500.9700927793177</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -34959,7 +34959,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K6" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>506.6900639491204</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
         <v>522.0635703700256</v>
-      </c>
-      <c r="O6" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="P6" t="n">
-        <v>179.3869557635729</v>
       </c>
       <c r="Q6" t="n">
         <v>353.3782471555388</v>
@@ -35175,13 +35175,13 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
         <v>522.0635703700256</v>
-      </c>
-      <c r="L8" t="n">
-        <v>500.9700927793178</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>522.0635703700256</v>
@@ -35190,10 +35190,10 @@
         <v>522.0635703700256</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>176.5650354103359</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,22 +35251,22 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>147.5918456237783</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="M9" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>14.48459394538775</v>
       </c>
       <c r="P9" t="n">
         <v>522.0635703700256</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K11" t="n">
-        <v>500.9700927793178</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>400.9092955204429</v>
+      </c>
+      <c r="P11" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="N11" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35491,28 +35491,28 @@
         <v>194.760462184478</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L12" t="n">
-        <v>522.0635703700256</v>
+        <v>506.6900639491204</v>
       </c>
       <c r="M12" t="n">
-        <v>306.2096305948393</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35652,25 +35652,25 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>500.9700927793178</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M14" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="N14" t="n">
+        <v>135.5987266329976</v>
+      </c>
+      <c r="O14" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
       <c r="P14" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K15" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L15" t="n">
-        <v>179.3869557635729</v>
+        <v>506.6900639491204</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
         <v>522.0635703700256</v>
-      </c>
-      <c r="O15" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>353.3782471555388</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>256.7530014825803</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K17" t="n">
         <v>543.5954556656965</v>
@@ -35907,7 +35907,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R17" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>353.1425107818302</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M18" t="n">
         <v>851.4920007015825</v>
       </c>
       <c r="N18" t="n">
-        <v>151.2227878040966</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36144,7 +36144,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R20" t="n">
-        <v>40.96630877733828</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36205,25 +36205,25 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>744.2241516194746</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>461.373944936793</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36436,13 +36436,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L24" t="n">
-        <v>491.2320453030855</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -36451,13 +36451,13 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>371.6049244215989</v>
       </c>
       <c r="P24" t="n">
         <v>567.3796893823536</v>
       </c>
       <c r="Q24" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K27" t="n">
         <v>460.4103598639381</v>
@@ -36682,7 +36682,7 @@
         <v>667.7658302215033</v>
       </c>
       <c r="M27" t="n">
-        <v>18.22667726606008</v>
+        <v>176.8444622371211</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -36694,7 +36694,7 @@
         <v>567.3796893823536</v>
       </c>
       <c r="Q27" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36910,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M30" t="n">
-        <v>473.6101143363514</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37089,10 +37089,10 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q32" t="n">
-        <v>324.4050573689814</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R32" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37150,13 +37150,13 @@
         <v>194.760462184478</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L33" t="n">
-        <v>667.7658302215033</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M33" t="n">
-        <v>283.8765749455204</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -37171,7 +37171,7 @@
         <v>353.3782471555388</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37390,19 +37390,19 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L36" t="n">
-        <v>401.8801961683345</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>370.8892755450506</v>
       </c>
       <c r="Q36" t="n">
         <v>353.3782471555388</v>
@@ -37627,25 +37627,25 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>744.2241516194746</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>461.373944936793</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>256.7530014825803</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K41" t="n">
         <v>543.5954556656965</v>
@@ -37803,7 +37803,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R41" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>87.49261310237</v>
       </c>
       <c r="O42" t="n">
-        <v>461.3739449367926</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38101,7 +38101,7 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -38110,7 +38110,7 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>461.3739449367926</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>567.3796893823536</v>
@@ -38119,7 +38119,7 @@
         <v>353.3782471555388</v>
       </c>
       <c r="R45" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
